--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,63 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B35" t="n">
+        <v>304</v>
+      </c>
+      <c r="C35" t="n">
+        <v>315</v>
+      </c>
+      <c r="D35" t="n">
+        <v>303.1499938964844</v>
+      </c>
+      <c r="E35" t="n">
+        <v>309.6000061035156</v>
+      </c>
+      <c r="F35" t="n">
+        <v>309.6000061035156</v>
+      </c>
+      <c r="G35" t="n">
+        <v>585495</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>18</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>25</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,7 +1917,7 @@
         <v>23</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2429,7 +2429,63 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B36" t="n">
+        <v>312.7000122070312</v>
+      </c>
+      <c r="C36" t="n">
+        <v>328.2000122070312</v>
+      </c>
+      <c r="D36" t="n">
+        <v>311.2999877929688</v>
+      </c>
+      <c r="E36" t="n">
+        <v>316.8999938964844</v>
+      </c>
+      <c r="F36" t="n">
+        <v>316.8999938964844</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1919163</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>19</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>25</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2485,7 +2485,387 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B37" t="n">
+        <v>320</v>
+      </c>
+      <c r="C37" t="n">
+        <v>343.6000061035156</v>
+      </c>
+      <c r="D37" t="n">
+        <v>319</v>
+      </c>
+      <c r="E37" t="n">
+        <v>341.5499877929688</v>
+      </c>
+      <c r="F37" t="n">
+        <v>341.5499877929688</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1953689</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>20</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B38" t="n">
+        <v>346.4500122070312</v>
+      </c>
+      <c r="C38" t="n">
+        <v>351.7999877929688</v>
+      </c>
+      <c r="D38" t="n">
+        <v>328.2999877929688</v>
+      </c>
+      <c r="E38" t="n">
+        <v>333.6499938964844</v>
+      </c>
+      <c r="F38" t="n">
+        <v>333.6499938964844</v>
+      </c>
+      <c r="G38" t="n">
+        <v>963011</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6</v>
+      </c>
+      <c r="J38" t="n">
+        <v>21</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>25</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B39" t="n">
+        <v>336.8500061035156</v>
+      </c>
+      <c r="C39" t="n">
+        <v>342</v>
+      </c>
+      <c r="D39" t="n">
+        <v>333.4500122070312</v>
+      </c>
+      <c r="E39" t="n">
+        <v>335.5499877929688</v>
+      </c>
+      <c r="F39" t="n">
+        <v>335.5499877929688</v>
+      </c>
+      <c r="G39" t="n">
+        <v>460925</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>24</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>26</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B40" t="n">
+        <v>337.7999877929688</v>
+      </c>
+      <c r="C40" t="n">
+        <v>338.6499938964844</v>
+      </c>
+      <c r="D40" t="n">
+        <v>330</v>
+      </c>
+      <c r="E40" t="n">
+        <v>331</v>
+      </c>
+      <c r="F40" t="n">
+        <v>331</v>
+      </c>
+      <c r="G40" t="n">
+        <v>318784</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>26</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B41" t="n">
+        <v>332.9500122070312</v>
+      </c>
+      <c r="C41" t="n">
+        <v>338.4500122070312</v>
+      </c>
+      <c r="D41" t="n">
+        <v>324.8500061035156</v>
+      </c>
+      <c r="E41" t="n">
+        <v>335.3999938964844</v>
+      </c>
+      <c r="F41" t="n">
+        <v>335.3999938964844</v>
+      </c>
+      <c r="G41" t="n">
+        <v>361422</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>26</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>26</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B42" t="n">
+        <v>338.8500061035156</v>
+      </c>
+      <c r="C42" t="n">
+        <v>341</v>
+      </c>
+      <c r="D42" t="n">
+        <v>313.5499877929688</v>
+      </c>
+      <c r="E42" t="n">
+        <v>319.1000061035156</v>
+      </c>
+      <c r="F42" t="n">
+        <v>319.1000061035156</v>
+      </c>
+      <c r="G42" t="n">
+        <v>672395</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>27</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>26</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B43" t="n">
+        <v>323.3999938964844</v>
+      </c>
+      <c r="C43" t="n">
+        <v>338.3999938964844</v>
+      </c>
+      <c r="D43" t="n">
+        <v>321.6499938964844</v>
+      </c>
+      <c r="E43" t="n">
+        <v>324.1499938964844</v>
+      </c>
+      <c r="F43" t="n">
+        <v>324.1499938964844</v>
+      </c>
+      <c r="G43" t="n">
+        <v>372954</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>28</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>26</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -2541,7 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2595,7 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2649,7 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2703,7 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2757,7 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2811,7 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2865,7 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2881,6 +2881,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B44" t="n">
+        <v>327.6000061035156</v>
+      </c>
+      <c r="C44" t="n">
+        <v>332.8500061035156</v>
+      </c>
+      <c r="D44" t="n">
+        <v>322.3500061035156</v>
+      </c>
+      <c r="E44" t="n">
+        <v>327.75</v>
+      </c>
+      <c r="F44" t="n">
+        <v>327.75</v>
+      </c>
+      <c r="G44" t="n">
+        <v>247037</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>27</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B45" t="n">
+        <v>329.2999877929688</v>
+      </c>
+      <c r="C45" t="n">
+        <v>360</v>
+      </c>
+      <c r="D45" t="n">
+        <v>326.2000122070312</v>
+      </c>
+      <c r="E45" t="n">
+        <v>348.25</v>
+      </c>
+      <c r="F45" t="n">
+        <v>348.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2496610</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>27</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B46" t="n">
+        <v>356.8999938964844</v>
+      </c>
+      <c r="C46" t="n">
+        <v>364</v>
+      </c>
+      <c r="D46" t="n">
+        <v>352</v>
+      </c>
+      <c r="E46" t="n">
+        <v>356.0499877929688</v>
+      </c>
+      <c r="F46" t="n">
+        <v>356.0499877929688</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1046588</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>27</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B47" t="n">
+        <v>356.6499938964844</v>
+      </c>
+      <c r="C47" t="n">
+        <v>362.5499877929688</v>
+      </c>
+      <c r="D47" t="n">
+        <v>351.0499877929688</v>
+      </c>
+      <c r="E47" t="n">
+        <v>355.8500061035156</v>
+      </c>
+      <c r="F47" t="n">
+        <v>355.8500061035156</v>
+      </c>
+      <c r="G47" t="n">
+        <v>577872</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>27</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B48" t="n">
+        <v>355.9500122070312</v>
+      </c>
+      <c r="C48" t="n">
+        <v>379.8999938964844</v>
+      </c>
+      <c r="D48" t="n">
+        <v>349.3999938964844</v>
+      </c>
+      <c r="E48" t="n">
+        <v>362.2999877929688</v>
+      </c>
+      <c r="F48" t="n">
+        <v>362.2999877929688</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1913522</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>27</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2987,7 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -3041,7 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3095,7 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3149,7 +3157,495 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B49" t="n">
+        <v>368</v>
+      </c>
+      <c r="C49" t="n">
+        <v>396</v>
+      </c>
+      <c r="D49" t="n">
+        <v>368</v>
+      </c>
+      <c r="E49" t="n">
+        <v>392.3500061035156</v>
+      </c>
+      <c r="F49" t="n">
+        <v>392.3500061035156</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1524370</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I49" t="n">
+        <v>7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>8</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>28</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B50" t="n">
+        <v>397.8500061035156</v>
+      </c>
+      <c r="C50" t="n">
+        <v>399.7000122070312</v>
+      </c>
+      <c r="D50" t="n">
+        <v>379.6499938964844</v>
+      </c>
+      <c r="E50" t="n">
+        <v>393.3999938964844</v>
+      </c>
+      <c r="F50" t="n">
+        <v>393.3999938964844</v>
+      </c>
+      <c r="G50" t="n">
+        <v>806471</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>9</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>28</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B51" t="n">
+        <v>394</v>
+      </c>
+      <c r="C51" t="n">
+        <v>395.7999877929688</v>
+      </c>
+      <c r="D51" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="E51" t="n">
+        <v>381.6499938964844</v>
+      </c>
+      <c r="F51" t="n">
+        <v>381.6499938964844</v>
+      </c>
+      <c r="G51" t="n">
+        <v>636036</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I51" t="n">
+        <v>7</v>
+      </c>
+      <c r="J51" t="n">
+        <v>10</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>28</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B52" t="n">
+        <v>385.75</v>
+      </c>
+      <c r="C52" t="n">
+        <v>420.3500061035156</v>
+      </c>
+      <c r="D52" t="n">
+        <v>385.75</v>
+      </c>
+      <c r="E52" t="n">
+        <v>416.3500061035156</v>
+      </c>
+      <c r="F52" t="n">
+        <v>416.3500061035156</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1535894</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>28</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B53" t="n">
+        <v>423</v>
+      </c>
+      <c r="C53" t="n">
+        <v>429.2999877929688</v>
+      </c>
+      <c r="D53" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>404.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>404.5</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1082119</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>12</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>28</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B54" t="n">
+        <v>412</v>
+      </c>
+      <c r="C54" t="n">
+        <v>421</v>
+      </c>
+      <c r="D54" t="n">
+        <v>403.5499877929688</v>
+      </c>
+      <c r="E54" t="n">
+        <v>414.7999877929688</v>
+      </c>
+      <c r="F54" t="n">
+        <v>414.7999877929688</v>
+      </c>
+      <c r="G54" t="n">
+        <v>996717</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I54" t="n">
+        <v>7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>15</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>29</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B55" t="n">
+        <v>416.7999877929688</v>
+      </c>
+      <c r="C55" t="n">
+        <v>427</v>
+      </c>
+      <c r="D55" t="n">
+        <v>407.25</v>
+      </c>
+      <c r="E55" t="n">
+        <v>410.3999938964844</v>
+      </c>
+      <c r="F55" t="n">
+        <v>410.3999938964844</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1731845</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>16</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>29</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B56" t="n">
+        <v>410.9500122070312</v>
+      </c>
+      <c r="C56" t="n">
+        <v>410.9500122070312</v>
+      </c>
+      <c r="D56" t="n">
+        <v>392.1000061035156</v>
+      </c>
+      <c r="E56" t="n">
+        <v>396.6000061035156</v>
+      </c>
+      <c r="F56" t="n">
+        <v>396.6000061035156</v>
+      </c>
+      <c r="G56" t="n">
+        <v>627004</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>18</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>29</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B57" t="n">
+        <v>395.1000061035156</v>
+      </c>
+      <c r="C57" t="n">
+        <v>403.3999938964844</v>
+      </c>
+      <c r="D57" t="n">
+        <v>382.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>397.5499877929688</v>
+      </c>
+      <c r="F57" t="n">
+        <v>397.5499877929688</v>
+      </c>
+      <c r="G57" t="n">
+        <v>623124</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>19</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>29</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3213,7 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3267,7 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3321,7 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3375,7 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3429,7 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3483,7 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3537,7 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3591,7 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3645,7 +3661,549 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B58" t="n">
+        <v>393</v>
+      </c>
+      <c r="C58" t="n">
+        <v>401.75</v>
+      </c>
+      <c r="D58" t="n">
+        <v>383.6000061035156</v>
+      </c>
+      <c r="E58" t="n">
+        <v>390.3500061035156</v>
+      </c>
+      <c r="F58" t="n">
+        <v>390.3500061035156</v>
+      </c>
+      <c r="G58" t="n">
+        <v>486846</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>22</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>30</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B59" t="n">
+        <v>392.8999938964844</v>
+      </c>
+      <c r="C59" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="D59" t="n">
+        <v>373.0499877929688</v>
+      </c>
+      <c r="E59" t="n">
+        <v>408.8999938964844</v>
+      </c>
+      <c r="F59" t="n">
+        <v>408.8999938964844</v>
+      </c>
+      <c r="G59" t="n">
+        <v>809147</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>23</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>30</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B60" t="n">
+        <v>409</v>
+      </c>
+      <c r="C60" t="n">
+        <v>410.9500122070312</v>
+      </c>
+      <c r="D60" t="n">
+        <v>401.1499938964844</v>
+      </c>
+      <c r="E60" t="n">
+        <v>407.8500061035156</v>
+      </c>
+      <c r="F60" t="n">
+        <v>407.8500061035156</v>
+      </c>
+      <c r="G60" t="n">
+        <v>540319</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>24</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>30</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B61" t="n">
+        <v>402.0499877929688</v>
+      </c>
+      <c r="C61" t="n">
+        <v>418</v>
+      </c>
+      <c r="D61" t="n">
+        <v>396.0499877929688</v>
+      </c>
+      <c r="E61" t="n">
+        <v>409.9500122070312</v>
+      </c>
+      <c r="F61" t="n">
+        <v>409.9500122070312</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1031540</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>25</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>30</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B62" t="n">
+        <v>413</v>
+      </c>
+      <c r="C62" t="n">
+        <v>450</v>
+      </c>
+      <c r="D62" t="n">
+        <v>413</v>
+      </c>
+      <c r="E62" t="n">
+        <v>447</v>
+      </c>
+      <c r="F62" t="n">
+        <v>447</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2505400</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7</v>
+      </c>
+      <c r="J62" t="n">
+        <v>26</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>30</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B63" t="n">
+        <v>457</v>
+      </c>
+      <c r="C63" t="n">
+        <v>484.7999877929688</v>
+      </c>
+      <c r="D63" t="n">
+        <v>455.0499877929688</v>
+      </c>
+      <c r="E63" t="n">
+        <v>469.4500122070312</v>
+      </c>
+      <c r="F63" t="n">
+        <v>469.4500122070312</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2582952</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>29</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>31</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B64" t="n">
+        <v>471.4500122070312</v>
+      </c>
+      <c r="C64" t="n">
+        <v>512.5999755859375</v>
+      </c>
+      <c r="D64" t="n">
+        <v>471.4500122070312</v>
+      </c>
+      <c r="E64" t="n">
+        <v>492.1000061035156</v>
+      </c>
+      <c r="F64" t="n">
+        <v>492.1000061035156</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3655056</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>30</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>31</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B65" t="n">
+        <v>503</v>
+      </c>
+      <c r="C65" t="n">
+        <v>534</v>
+      </c>
+      <c r="D65" t="n">
+        <v>488.8500061035156</v>
+      </c>
+      <c r="E65" t="n">
+        <v>511.5499877929688</v>
+      </c>
+      <c r="F65" t="n">
+        <v>511.5499877929688</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3758129</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>31</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>31</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B66" t="n">
+        <v>510</v>
+      </c>
+      <c r="C66" t="n">
+        <v>523</v>
+      </c>
+      <c r="D66" t="n">
+        <v>503.6000061035156</v>
+      </c>
+      <c r="E66" t="n">
+        <v>506.25</v>
+      </c>
+      <c r="F66" t="n">
+        <v>506.25</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1603956</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>31</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B67" t="n">
+        <v>499</v>
+      </c>
+      <c r="C67" t="n">
+        <v>509.6499938964844</v>
+      </c>
+      <c r="D67" t="n">
+        <v>490.1000061035156</v>
+      </c>
+      <c r="E67" t="n">
+        <v>491.5499877929688</v>
+      </c>
+      <c r="F67" t="n">
+        <v>491.5499877929688</v>
+      </c>
+      <c r="G67" t="n">
+        <v>651305</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>31</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3717,7 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3771,7 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3825,7 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3879,7 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3933,7 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3987,7 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -4041,7 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -4095,7 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -4149,7 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4203,7 +4221,279 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B68" t="n">
+        <v>470</v>
+      </c>
+      <c r="C68" t="n">
+        <v>484.9500122070312</v>
+      </c>
+      <c r="D68" t="n">
+        <v>460</v>
+      </c>
+      <c r="E68" t="n">
+        <v>479.3999938964844</v>
+      </c>
+      <c r="F68" t="n">
+        <v>479.3999938964844</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1095861</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>32</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B69" t="n">
+        <v>488</v>
+      </c>
+      <c r="C69" t="n">
+        <v>504.8500061035156</v>
+      </c>
+      <c r="D69" t="n">
+        <v>465.1000061035156</v>
+      </c>
+      <c r="E69" t="n">
+        <v>469.4500122070312</v>
+      </c>
+      <c r="F69" t="n">
+        <v>469.4500122070312</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1310100</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>32</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B70" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>546</v>
+      </c>
+      <c r="D70" t="n">
+        <v>475.1000061035156</v>
+      </c>
+      <c r="E70" t="n">
+        <v>534.5499877929688</v>
+      </c>
+      <c r="F70" t="n">
+        <v>534.5499877929688</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2704683</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>7</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>32</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B71" t="n">
+        <v>545.1500244140625</v>
+      </c>
+      <c r="C71" t="n">
+        <v>592.4000244140625</v>
+      </c>
+      <c r="D71" t="n">
+        <v>534.5499877929688</v>
+      </c>
+      <c r="E71" t="n">
+        <v>577.5499877929688</v>
+      </c>
+      <c r="F71" t="n">
+        <v>577.5499877929688</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2870508</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8</v>
+      </c>
+      <c r="J71" t="n">
+        <v>8</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>32</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B72" t="n">
+        <v>584.9500122070312</v>
+      </c>
+      <c r="C72" t="n">
+        <v>596</v>
+      </c>
+      <c r="D72" t="n">
+        <v>570.5999755859375</v>
+      </c>
+      <c r="E72" t="n">
+        <v>578.7999877929688</v>
+      </c>
+      <c r="F72" t="n">
+        <v>578.7999877929688</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1166181</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8</v>
+      </c>
+      <c r="J72" t="n">
+        <v>9</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>32</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4277,7 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4331,7 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4385,7 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4439,7 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4493,7 +4501,225 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B73" t="n">
+        <v>572</v>
+      </c>
+      <c r="C73" t="n">
+        <v>599</v>
+      </c>
+      <c r="D73" t="n">
+        <v>572</v>
+      </c>
+      <c r="E73" t="n">
+        <v>577.4000244140625</v>
+      </c>
+      <c r="F73" t="n">
+        <v>577.4000244140625</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1123244</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I73" t="n">
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>12</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>33</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B74" t="n">
+        <v>579.0499877929688</v>
+      </c>
+      <c r="C74" t="n">
+        <v>583</v>
+      </c>
+      <c r="D74" t="n">
+        <v>553.4000244140625</v>
+      </c>
+      <c r="E74" t="n">
+        <v>558.75</v>
+      </c>
+      <c r="F74" t="n">
+        <v>558.75</v>
+      </c>
+      <c r="G74" t="n">
+        <v>675321</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I74" t="n">
+        <v>8</v>
+      </c>
+      <c r="J74" t="n">
+        <v>13</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>33</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B75" t="n">
+        <v>563</v>
+      </c>
+      <c r="C75" t="n">
+        <v>569.8499755859375</v>
+      </c>
+      <c r="D75" t="n">
+        <v>532.4000244140625</v>
+      </c>
+      <c r="E75" t="n">
+        <v>560.25</v>
+      </c>
+      <c r="F75" t="n">
+        <v>560.25</v>
+      </c>
+      <c r="G75" t="n">
+        <v>666186</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I75" t="n">
+        <v>8</v>
+      </c>
+      <c r="J75" t="n">
+        <v>14</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>33</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B76" t="n">
+        <v>567</v>
+      </c>
+      <c r="C76" t="n">
+        <v>587</v>
+      </c>
+      <c r="D76" t="n">
+        <v>543</v>
+      </c>
+      <c r="E76" t="n">
+        <v>572.7000122070312</v>
+      </c>
+      <c r="F76" t="n">
+        <v>572.7000122070312</v>
+      </c>
+      <c r="G76" t="n">
+        <v>960883</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>16</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>33</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4557,7 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4611,7 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4665,7 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4719,7 +4725,279 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B77" t="n">
+        <v>575</v>
+      </c>
+      <c r="C77" t="n">
+        <v>595.9500122070312</v>
+      </c>
+      <c r="D77" t="n">
+        <v>568.2000122070312</v>
+      </c>
+      <c r="E77" t="n">
+        <v>572.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>572.5</v>
+      </c>
+      <c r="G77" t="n">
+        <v>717831</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I77" t="n">
+        <v>8</v>
+      </c>
+      <c r="J77" t="n">
+        <v>19</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>34</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B78" t="n">
+        <v>574</v>
+      </c>
+      <c r="C78" t="n">
+        <v>604.9500122070312</v>
+      </c>
+      <c r="D78" t="n">
+        <v>564.6500244140625</v>
+      </c>
+      <c r="E78" t="n">
+        <v>598.4500122070312</v>
+      </c>
+      <c r="F78" t="n">
+        <v>598.4500122070312</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1233081</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I78" t="n">
+        <v>8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>20</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>34</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B79" t="n">
+        <v>605.0499877929688</v>
+      </c>
+      <c r="C79" t="n">
+        <v>630</v>
+      </c>
+      <c r="D79" t="n">
+        <v>605.0499877929688</v>
+      </c>
+      <c r="E79" t="n">
+        <v>616.5999755859375</v>
+      </c>
+      <c r="F79" t="n">
+        <v>616.5999755859375</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1705538</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I79" t="n">
+        <v>8</v>
+      </c>
+      <c r="J79" t="n">
+        <v>21</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>34</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B80" t="n">
+        <v>618.7999877929688</v>
+      </c>
+      <c r="C80" t="n">
+        <v>650</v>
+      </c>
+      <c r="D80" t="n">
+        <v>610.7999877929688</v>
+      </c>
+      <c r="E80" t="n">
+        <v>648.2999877929688</v>
+      </c>
+      <c r="F80" t="n">
+        <v>648.2999877929688</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1408999</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I80" t="n">
+        <v>8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>22</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>34</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B81" t="n">
+        <v>654</v>
+      </c>
+      <c r="C81" t="n">
+        <v>777.9500122070312</v>
+      </c>
+      <c r="D81" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="E81" t="n">
+        <v>774.2999877929688</v>
+      </c>
+      <c r="F81" t="n">
+        <v>774.2999877929688</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3601031</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I81" t="n">
+        <v>8</v>
+      </c>
+      <c r="J81" t="n">
+        <v>23</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>34</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4781,7 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4835,7 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4889,7 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4943,7 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4997,7 +5005,279 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B82" t="n">
+        <v>795</v>
+      </c>
+      <c r="C82" t="n">
+        <v>849.7000122070312</v>
+      </c>
+      <c r="D82" t="n">
+        <v>738.5999755859375</v>
+      </c>
+      <c r="E82" t="n">
+        <v>763.4500122070312</v>
+      </c>
+      <c r="F82" t="n">
+        <v>763.4500122070312</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4158896</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I82" t="n">
+        <v>8</v>
+      </c>
+      <c r="J82" t="n">
+        <v>26</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>35</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B83" t="n">
+        <v>776.5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>820</v>
+      </c>
+      <c r="D83" t="n">
+        <v>771.5499877929688</v>
+      </c>
+      <c r="E83" t="n">
+        <v>786.9000244140625</v>
+      </c>
+      <c r="F83" t="n">
+        <v>786.9000244140625</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1508078</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I83" t="n">
+        <v>8</v>
+      </c>
+      <c r="J83" t="n">
+        <v>27</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>35</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B84" t="n">
+        <v>791.7999877929688</v>
+      </c>
+      <c r="C84" t="n">
+        <v>803.0499877929688</v>
+      </c>
+      <c r="D84" t="n">
+        <v>765.9500122070312</v>
+      </c>
+      <c r="E84" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>665718</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I84" t="n">
+        <v>8</v>
+      </c>
+      <c r="J84" t="n">
+        <v>28</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>35</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B85" t="n">
+        <v>768.25</v>
+      </c>
+      <c r="C85" t="n">
+        <v>779.9000244140625</v>
+      </c>
+      <c r="D85" t="n">
+        <v>725</v>
+      </c>
+      <c r="E85" t="n">
+        <v>746.3499755859375</v>
+      </c>
+      <c r="F85" t="n">
+        <v>746.3499755859375</v>
+      </c>
+      <c r="G85" t="n">
+        <v>932226</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>29</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>35</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B86" t="n">
+        <v>754.7000122070312</v>
+      </c>
+      <c r="C86" t="n">
+        <v>770.4500122070312</v>
+      </c>
+      <c r="D86" t="n">
+        <v>740.5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>750.5999755859375</v>
+      </c>
+      <c r="F86" t="n">
+        <v>750.5999755859375</v>
+      </c>
+      <c r="G86" t="n">
+        <v>433150</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>30</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>35</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5061,7 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -5115,7 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
-      <c r="R83" t="inlineStr"/>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -5169,7 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
-      <c r="R84" t="inlineStr"/>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -5223,7 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5277,7 +5285,279 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
-      <c r="R86" t="inlineStr"/>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B87" t="n">
+        <v>754.4000244140625</v>
+      </c>
+      <c r="C87" t="n">
+        <v>798.7999877929688</v>
+      </c>
+      <c r="D87" t="n">
+        <v>754</v>
+      </c>
+      <c r="E87" t="n">
+        <v>772.1500244140625</v>
+      </c>
+      <c r="F87" t="n">
+        <v>772.1500244140625</v>
+      </c>
+      <c r="G87" t="n">
+        <v>776414</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I87" t="n">
+        <v>9</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>36</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B88" t="n">
+        <v>776</v>
+      </c>
+      <c r="C88" t="n">
+        <v>782</v>
+      </c>
+      <c r="D88" t="n">
+        <v>756.0999755859375</v>
+      </c>
+      <c r="E88" t="n">
+        <v>778.5999755859375</v>
+      </c>
+      <c r="F88" t="n">
+        <v>778.5999755859375</v>
+      </c>
+      <c r="G88" t="n">
+        <v>563585</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>36</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B89" t="n">
+        <v>766.9000244140625</v>
+      </c>
+      <c r="C89" t="n">
+        <v>784.4000244140625</v>
+      </c>
+      <c r="D89" t="n">
+        <v>750</v>
+      </c>
+      <c r="E89" t="n">
+        <v>768.7000122070312</v>
+      </c>
+      <c r="F89" t="n">
+        <v>768.7000122070312</v>
+      </c>
+      <c r="G89" t="n">
+        <v>516817</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>36</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B90" t="n">
+        <v>775.1500244140625</v>
+      </c>
+      <c r="C90" t="n">
+        <v>796.7999877929688</v>
+      </c>
+      <c r="D90" t="n">
+        <v>775</v>
+      </c>
+      <c r="E90" t="n">
+        <v>786.1500244140625</v>
+      </c>
+      <c r="F90" t="n">
+        <v>786.1500244140625</v>
+      </c>
+      <c r="G90" t="n">
+        <v>496777</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I90" t="n">
+        <v>9</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>36</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B91" t="n">
+        <v>790</v>
+      </c>
+      <c r="C91" t="n">
+        <v>796.75</v>
+      </c>
+      <c r="D91" t="n">
+        <v>764</v>
+      </c>
+      <c r="E91" t="n">
+        <v>770.25</v>
+      </c>
+      <c r="F91" t="n">
+        <v>770.25</v>
+      </c>
+      <c r="G91" t="n">
+        <v>338138</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9</v>
+      </c>
+      <c r="J91" t="n">
+        <v>6</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>36</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R91"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5341,7 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5395,7 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5449,7 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5503,7 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5557,7 +5565,279 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B92" t="n">
+        <v>771.2000122070312</v>
+      </c>
+      <c r="C92" t="n">
+        <v>866.3499755859375</v>
+      </c>
+      <c r="D92" t="n">
+        <v>770</v>
+      </c>
+      <c r="E92" t="n">
+        <v>854.3499755859375</v>
+      </c>
+      <c r="F92" t="n">
+        <v>854.3499755859375</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2920578</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>9</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>37</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B93" t="n">
+        <v>860</v>
+      </c>
+      <c r="C93" t="n">
+        <v>866.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>830</v>
+      </c>
+      <c r="E93" t="n">
+        <v>839.75</v>
+      </c>
+      <c r="F93" t="n">
+        <v>839.75</v>
+      </c>
+      <c r="G93" t="n">
+        <v>746799</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I93" t="n">
+        <v>9</v>
+      </c>
+      <c r="J93" t="n">
+        <v>10</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>37</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B94" t="n">
+        <v>839.75</v>
+      </c>
+      <c r="C94" t="n">
+        <v>851.4500122070312</v>
+      </c>
+      <c r="D94" t="n">
+        <v>815.0999755859375</v>
+      </c>
+      <c r="E94" t="n">
+        <v>819.7000122070312</v>
+      </c>
+      <c r="F94" t="n">
+        <v>819.7000122070312</v>
+      </c>
+      <c r="G94" t="n">
+        <v>594607</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I94" t="n">
+        <v>9</v>
+      </c>
+      <c r="J94" t="n">
+        <v>11</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>37</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B95" t="n">
+        <v>827.7000122070312</v>
+      </c>
+      <c r="C95" t="n">
+        <v>831.5499877929688</v>
+      </c>
+      <c r="D95" t="n">
+        <v>782.9500122070312</v>
+      </c>
+      <c r="E95" t="n">
+        <v>789.5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>789.5</v>
+      </c>
+      <c r="G95" t="n">
+        <v>810851</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I95" t="n">
+        <v>9</v>
+      </c>
+      <c r="J95" t="n">
+        <v>12</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>37</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B96" t="n">
+        <v>792.7999877929688</v>
+      </c>
+      <c r="C96" t="n">
+        <v>823</v>
+      </c>
+      <c r="D96" t="n">
+        <v>772.7000122070312</v>
+      </c>
+      <c r="E96" t="n">
+        <v>802.2999877929688</v>
+      </c>
+      <c r="F96" t="n">
+        <v>802.2999877929688</v>
+      </c>
+      <c r="G96" t="n">
+        <v>910540</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I96" t="n">
+        <v>9</v>
+      </c>
+      <c r="J96" t="n">
+        <v>13</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>37</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5621,7 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5675,7 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5729,7 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
-      <c r="R94" t="inlineStr"/>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5783,7 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5837,7 +5845,279 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
-      <c r="R96" t="inlineStr"/>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B97" t="n">
+        <v>800.9500122070312</v>
+      </c>
+      <c r="C97" t="n">
+        <v>801</v>
+      </c>
+      <c r="D97" t="n">
+        <v>759.9500122070312</v>
+      </c>
+      <c r="E97" t="n">
+        <v>764.0499877929688</v>
+      </c>
+      <c r="F97" t="n">
+        <v>763.8954467773438</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1008202</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I97" t="n">
+        <v>9</v>
+      </c>
+      <c r="J97" t="n">
+        <v>16</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>38</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B98" t="n">
+        <v>768.9000244140625</v>
+      </c>
+      <c r="C98" t="n">
+        <v>778</v>
+      </c>
+      <c r="D98" t="n">
+        <v>732.6500244140625</v>
+      </c>
+      <c r="E98" t="n">
+        <v>740.5499877929688</v>
+      </c>
+      <c r="F98" t="n">
+        <v>740.400146484375</v>
+      </c>
+      <c r="G98" t="n">
+        <v>579964</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I98" t="n">
+        <v>9</v>
+      </c>
+      <c r="J98" t="n">
+        <v>17</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>38</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B99" t="n">
+        <v>739.8499755859375</v>
+      </c>
+      <c r="C99" t="n">
+        <v>788.7000122070312</v>
+      </c>
+      <c r="D99" t="n">
+        <v>732.7999877929688</v>
+      </c>
+      <c r="E99" t="n">
+        <v>740.9500122070312</v>
+      </c>
+      <c r="F99" t="n">
+        <v>740.8001098632812</v>
+      </c>
+      <c r="G99" t="n">
+        <v>993251</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>18</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>38</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B100" t="n">
+        <v>746.7000122070312</v>
+      </c>
+      <c r="C100" t="n">
+        <v>760</v>
+      </c>
+      <c r="D100" t="n">
+        <v>721.0999755859375</v>
+      </c>
+      <c r="E100" t="n">
+        <v>741.5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>741.3499755859375</v>
+      </c>
+      <c r="G100" t="n">
+        <v>645665</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>19</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>38</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B101" t="n">
+        <v>743.7000122070312</v>
+      </c>
+      <c r="C101" t="n">
+        <v>746.7999877929688</v>
+      </c>
+      <c r="D101" t="n">
+        <v>723.5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>729.9500122070312</v>
+      </c>
+      <c r="F101" t="n">
+        <v>729.9500122070312</v>
+      </c>
+      <c r="G101" t="n">
+        <v>421705</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9</v>
+      </c>
+      <c r="J101" t="n">
+        <v>20</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>38</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5901,7 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
-      <c r="R97" t="inlineStr"/>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5955,7 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -6009,7 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
-      <c r="R99" t="inlineStr"/>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -6063,7 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
-      <c r="R100" t="inlineStr"/>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -6117,7 +6125,279 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
-      <c r="R101" t="inlineStr"/>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B102" t="n">
+        <v>739.7999877929688</v>
+      </c>
+      <c r="C102" t="n">
+        <v>817</v>
+      </c>
+      <c r="D102" t="n">
+        <v>731.75</v>
+      </c>
+      <c r="E102" t="n">
+        <v>800.25</v>
+      </c>
+      <c r="F102" t="n">
+        <v>800.25</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1954339</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I102" t="n">
+        <v>9</v>
+      </c>
+      <c r="J102" t="n">
+        <v>23</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>39</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B103" t="n">
+        <v>815.2000122070312</v>
+      </c>
+      <c r="C103" t="n">
+        <v>886.9500122070312</v>
+      </c>
+      <c r="D103" t="n">
+        <v>800.0499877929688</v>
+      </c>
+      <c r="E103" t="n">
+        <v>806.9500122070312</v>
+      </c>
+      <c r="F103" t="n">
+        <v>806.9500122070312</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3908184</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I103" t="n">
+        <v>9</v>
+      </c>
+      <c r="J103" t="n">
+        <v>24</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>39</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B104" t="n">
+        <v>816.7000122070312</v>
+      </c>
+      <c r="C104" t="n">
+        <v>863.0999755859375</v>
+      </c>
+      <c r="D104" t="n">
+        <v>808</v>
+      </c>
+      <c r="E104" t="n">
+        <v>813.5499877929688</v>
+      </c>
+      <c r="F104" t="n">
+        <v>813.5499877929688</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1408711</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I104" t="n">
+        <v>9</v>
+      </c>
+      <c r="J104" t="n">
+        <v>25</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>39</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B105" t="n">
+        <v>816.4000244140625</v>
+      </c>
+      <c r="C105" t="n">
+        <v>824.4000244140625</v>
+      </c>
+      <c r="D105" t="n">
+        <v>786</v>
+      </c>
+      <c r="E105" t="n">
+        <v>812.7999877929688</v>
+      </c>
+      <c r="F105" t="n">
+        <v>812.7999877929688</v>
+      </c>
+      <c r="G105" t="n">
+        <v>692023</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I105" t="n">
+        <v>9</v>
+      </c>
+      <c r="J105" t="n">
+        <v>26</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>39</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B106" t="n">
+        <v>813</v>
+      </c>
+      <c r="C106" t="n">
+        <v>813</v>
+      </c>
+      <c r="D106" t="n">
+        <v>787</v>
+      </c>
+      <c r="E106" t="n">
+        <v>790.25</v>
+      </c>
+      <c r="F106" t="n">
+        <v>790.25</v>
+      </c>
+      <c r="G106" t="n">
+        <v>448518</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I106" t="n">
+        <v>9</v>
+      </c>
+      <c r="J106" t="n">
+        <v>27</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>39</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R106"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6061,7 +6061,7 @@
         <v>38</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -6181,7 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
-      <c r="R102" t="inlineStr"/>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -6235,7 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
-      <c r="R103" t="inlineStr"/>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -6289,7 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
-      <c r="R104" t="inlineStr"/>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6343,7 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
-      <c r="R105" t="inlineStr"/>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6397,7 +6405,225 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
-      <c r="R106" t="inlineStr"/>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B107" t="n">
+        <v>787.5499877929688</v>
+      </c>
+      <c r="C107" t="n">
+        <v>799.9000244140625</v>
+      </c>
+      <c r="D107" t="n">
+        <v>765</v>
+      </c>
+      <c r="E107" t="n">
+        <v>779.1500244140625</v>
+      </c>
+      <c r="F107" t="n">
+        <v>779.1500244140625</v>
+      </c>
+      <c r="G107" t="n">
+        <v>464270</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I107" t="n">
+        <v>9</v>
+      </c>
+      <c r="J107" t="n">
+        <v>30</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>40</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B108" t="n">
+        <v>781.9500122070312</v>
+      </c>
+      <c r="C108" t="n">
+        <v>814.2000122070312</v>
+      </c>
+      <c r="D108" t="n">
+        <v>781.6500244140625</v>
+      </c>
+      <c r="E108" t="n">
+        <v>793.5999755859375</v>
+      </c>
+      <c r="F108" t="n">
+        <v>793.5999755859375</v>
+      </c>
+      <c r="G108" t="n">
+        <v>537393</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>40</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B109" t="n">
+        <v>789</v>
+      </c>
+      <c r="C109" t="n">
+        <v>789.7000122070312</v>
+      </c>
+      <c r="D109" t="n">
+        <v>761</v>
+      </c>
+      <c r="E109" t="n">
+        <v>771.5999755859375</v>
+      </c>
+      <c r="F109" t="n">
+        <v>771.5999755859375</v>
+      </c>
+      <c r="G109" t="n">
+        <v>456437</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I109" t="n">
+        <v>10</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>40</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B110" t="n">
+        <v>772.75</v>
+      </c>
+      <c r="C110" t="n">
+        <v>794.2999877929688</v>
+      </c>
+      <c r="D110" t="n">
+        <v>751.1500244140625</v>
+      </c>
+      <c r="E110" t="n">
+        <v>766.3499755859375</v>
+      </c>
+      <c r="F110" t="n">
+        <v>766.3499755859375</v>
+      </c>
+      <c r="G110" t="n">
+        <v>402995</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>40</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6229,7 +6229,7 @@
         <v>39</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
@@ -6461,7 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
-      <c r="R107" t="inlineStr"/>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6515,7 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
-      <c r="R108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6569,7 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
-      <c r="R109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6623,7 +6629,279 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
-      <c r="R110" t="inlineStr"/>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B111" t="n">
+        <v>772.2000122070312</v>
+      </c>
+      <c r="C111" t="n">
+        <v>780.4500122070312</v>
+      </c>
+      <c r="D111" t="n">
+        <v>686.8499755859375</v>
+      </c>
+      <c r="E111" t="n">
+        <v>707.9000244140625</v>
+      </c>
+      <c r="F111" t="n">
+        <v>707.9000244140625</v>
+      </c>
+      <c r="G111" t="n">
+        <v>859556</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I111" t="n">
+        <v>10</v>
+      </c>
+      <c r="J111" t="n">
+        <v>7</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>41</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B112" t="n">
+        <v>702.0499877929688</v>
+      </c>
+      <c r="C112" t="n">
+        <v>757.8499755859375</v>
+      </c>
+      <c r="D112" t="n">
+        <v>701.0499877929688</v>
+      </c>
+      <c r="E112" t="n">
+        <v>747.8499755859375</v>
+      </c>
+      <c r="F112" t="n">
+        <v>747.8499755859375</v>
+      </c>
+      <c r="G112" t="n">
+        <v>456178</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I112" t="n">
+        <v>10</v>
+      </c>
+      <c r="J112" t="n">
+        <v>8</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>41</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B113" t="n">
+        <v>753.25</v>
+      </c>
+      <c r="C113" t="n">
+        <v>779.9500122070312</v>
+      </c>
+      <c r="D113" t="n">
+        <v>743.1500244140625</v>
+      </c>
+      <c r="E113" t="n">
+        <v>748.2999877929688</v>
+      </c>
+      <c r="F113" t="n">
+        <v>748.2999877929688</v>
+      </c>
+      <c r="G113" t="n">
+        <v>495827</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I113" t="n">
+        <v>10</v>
+      </c>
+      <c r="J113" t="n">
+        <v>9</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>41</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B114" t="n">
+        <v>753.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>763.7000122070312</v>
+      </c>
+      <c r="D114" t="n">
+        <v>744</v>
+      </c>
+      <c r="E114" t="n">
+        <v>746.9500122070312</v>
+      </c>
+      <c r="F114" t="n">
+        <v>746.9500122070312</v>
+      </c>
+      <c r="G114" t="n">
+        <v>215755</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I114" t="n">
+        <v>10</v>
+      </c>
+      <c r="J114" t="n">
+        <v>10</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>41</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B115" t="n">
+        <v>747.75</v>
+      </c>
+      <c r="C115" t="n">
+        <v>786</v>
+      </c>
+      <c r="D115" t="n">
+        <v>741.7000122070312</v>
+      </c>
+      <c r="E115" t="n">
+        <v>765.3499755859375</v>
+      </c>
+      <c r="F115" t="n">
+        <v>765.3499755859375</v>
+      </c>
+      <c r="G115" t="n">
+        <v>412455</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I115" t="n">
+        <v>10</v>
+      </c>
+      <c r="J115" t="n">
+        <v>11</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>41</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R115"/>
+  <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6685,7 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
-      <c r="R111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6739,7 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6793,7 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
-      <c r="R113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6847,7 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
-      <c r="R114" t="inlineStr"/>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6901,7 +6909,279 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
-      <c r="R115" t="inlineStr"/>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B116" t="n">
+        <v>767</v>
+      </c>
+      <c r="C116" t="n">
+        <v>793.9500122070312</v>
+      </c>
+      <c r="D116" t="n">
+        <v>766</v>
+      </c>
+      <c r="E116" t="n">
+        <v>784.1500244140625</v>
+      </c>
+      <c r="F116" t="n">
+        <v>784.1500244140625</v>
+      </c>
+      <c r="G116" t="n">
+        <v>481383</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10</v>
+      </c>
+      <c r="J116" t="n">
+        <v>14</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>42</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B117" t="n">
+        <v>789.7000122070312</v>
+      </c>
+      <c r="C117" t="n">
+        <v>810.5999755859375</v>
+      </c>
+      <c r="D117" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E117" t="n">
+        <v>784.75</v>
+      </c>
+      <c r="F117" t="n">
+        <v>784.75</v>
+      </c>
+      <c r="G117" t="n">
+        <v>370327</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I117" t="n">
+        <v>10</v>
+      </c>
+      <c r="J117" t="n">
+        <v>15</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>42</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B118" t="n">
+        <v>782.4500122070312</v>
+      </c>
+      <c r="C118" t="n">
+        <v>815</v>
+      </c>
+      <c r="D118" t="n">
+        <v>782.1500244140625</v>
+      </c>
+      <c r="E118" t="n">
+        <v>799.6500244140625</v>
+      </c>
+      <c r="F118" t="n">
+        <v>799.6500244140625</v>
+      </c>
+      <c r="G118" t="n">
+        <v>606044</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I118" t="n">
+        <v>10</v>
+      </c>
+      <c r="J118" t="n">
+        <v>16</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>42</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B119" t="n">
+        <v>801</v>
+      </c>
+      <c r="C119" t="n">
+        <v>820</v>
+      </c>
+      <c r="D119" t="n">
+        <v>791.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>800.7000122070312</v>
+      </c>
+      <c r="F119" t="n">
+        <v>800.7000122070312</v>
+      </c>
+      <c r="G119" t="n">
+        <v>545042</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I119" t="n">
+        <v>10</v>
+      </c>
+      <c r="J119" t="n">
+        <v>17</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>42</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B120" t="n">
+        <v>798.0999755859375</v>
+      </c>
+      <c r="C120" t="n">
+        <v>859</v>
+      </c>
+      <c r="D120" t="n">
+        <v>781</v>
+      </c>
+      <c r="E120" t="n">
+        <v>844.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>844.5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1772420</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I120" t="n">
+        <v>10</v>
+      </c>
+      <c r="J120" t="n">
+        <v>18</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>42</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R120"/>
+  <dimension ref="A1:R125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6677,7 +6677,7 @@
         <v>41</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
@@ -6965,7 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
-      <c r="R116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -7019,7 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
-      <c r="R117" t="inlineStr"/>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -7073,7 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
-      <c r="R118" t="inlineStr"/>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -7127,7 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
-      <c r="R119" t="inlineStr"/>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -7181,7 +7189,279 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
-      <c r="R120" t="inlineStr"/>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B121" t="n">
+        <v>844</v>
+      </c>
+      <c r="C121" t="n">
+        <v>873.9000244140625</v>
+      </c>
+      <c r="D121" t="n">
+        <v>809.9500122070312</v>
+      </c>
+      <c r="E121" t="n">
+        <v>824.7999877929688</v>
+      </c>
+      <c r="F121" t="n">
+        <v>824.7999877929688</v>
+      </c>
+      <c r="G121" t="n">
+        <v>957919</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I121" t="n">
+        <v>10</v>
+      </c>
+      <c r="J121" t="n">
+        <v>21</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>43</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B122" t="n">
+        <v>865</v>
+      </c>
+      <c r="C122" t="n">
+        <v>870</v>
+      </c>
+      <c r="D122" t="n">
+        <v>751.0499877929688</v>
+      </c>
+      <c r="E122" t="n">
+        <v>763.1500244140625</v>
+      </c>
+      <c r="F122" t="n">
+        <v>763.1500244140625</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1704195</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I122" t="n">
+        <v>10</v>
+      </c>
+      <c r="J122" t="n">
+        <v>22</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>43</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B123" t="n">
+        <v>763</v>
+      </c>
+      <c r="C123" t="n">
+        <v>788.7000122070312</v>
+      </c>
+      <c r="D123" t="n">
+        <v>759</v>
+      </c>
+      <c r="E123" t="n">
+        <v>765.25</v>
+      </c>
+      <c r="F123" t="n">
+        <v>765.25</v>
+      </c>
+      <c r="G123" t="n">
+        <v>558298</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I123" t="n">
+        <v>10</v>
+      </c>
+      <c r="J123" t="n">
+        <v>23</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>43</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B124" t="n">
+        <v>766.7999877929688</v>
+      </c>
+      <c r="C124" t="n">
+        <v>782.4500122070312</v>
+      </c>
+      <c r="D124" t="n">
+        <v>734.1500244140625</v>
+      </c>
+      <c r="E124" t="n">
+        <v>741.0999755859375</v>
+      </c>
+      <c r="F124" t="n">
+        <v>741.0999755859375</v>
+      </c>
+      <c r="G124" t="n">
+        <v>429835</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I124" t="n">
+        <v>10</v>
+      </c>
+      <c r="J124" t="n">
+        <v>24</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>43</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B125" t="n">
+        <v>742</v>
+      </c>
+      <c r="C125" t="n">
+        <v>742.9000244140625</v>
+      </c>
+      <c r="D125" t="n">
+        <v>669.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>695.5999755859375</v>
+      </c>
+      <c r="F125" t="n">
+        <v>695.5999755859375</v>
+      </c>
+      <c r="G125" t="n">
+        <v>787691</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I125" t="n">
+        <v>10</v>
+      </c>
+      <c r="J125" t="n">
+        <v>25</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>43</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R125"/>
+  <dimension ref="A1:R130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7245,7 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
-      <c r="R121" t="inlineStr"/>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -7299,7 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
-      <c r="R122" t="inlineStr"/>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -7353,7 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
-      <c r="R123" t="inlineStr"/>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7407,7 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
-      <c r="R124" t="inlineStr"/>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7461,7 +7469,279 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
-      <c r="R125" t="inlineStr"/>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B126" t="n">
+        <v>703.9000244140625</v>
+      </c>
+      <c r="C126" t="n">
+        <v>760</v>
+      </c>
+      <c r="D126" t="n">
+        <v>697.4000244140625</v>
+      </c>
+      <c r="E126" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="F126" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="G126" t="n">
+        <v>621635</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I126" t="n">
+        <v>10</v>
+      </c>
+      <c r="J126" t="n">
+        <v>28</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>44</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B127" t="n">
+        <v>738</v>
+      </c>
+      <c r="C127" t="n">
+        <v>749.2000122070312</v>
+      </c>
+      <c r="D127" t="n">
+        <v>715.5999755859375</v>
+      </c>
+      <c r="E127" t="n">
+        <v>732.25</v>
+      </c>
+      <c r="F127" t="n">
+        <v>732.25</v>
+      </c>
+      <c r="G127" t="n">
+        <v>272811</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I127" t="n">
+        <v>10</v>
+      </c>
+      <c r="J127" t="n">
+        <v>29</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>44</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B128" t="n">
+        <v>732.9000244140625</v>
+      </c>
+      <c r="C128" t="n">
+        <v>754.0999755859375</v>
+      </c>
+      <c r="D128" t="n">
+        <v>726.25</v>
+      </c>
+      <c r="E128" t="n">
+        <v>744.1500244140625</v>
+      </c>
+      <c r="F128" t="n">
+        <v>744.1500244140625</v>
+      </c>
+      <c r="G128" t="n">
+        <v>280797</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I128" t="n">
+        <v>10</v>
+      </c>
+      <c r="J128" t="n">
+        <v>30</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>44</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B129" t="n">
+        <v>742</v>
+      </c>
+      <c r="C129" t="n">
+        <v>774</v>
+      </c>
+      <c r="D129" t="n">
+        <v>740.0499877929688</v>
+      </c>
+      <c r="E129" t="n">
+        <v>750.2999877929688</v>
+      </c>
+      <c r="F129" t="n">
+        <v>750.2999877929688</v>
+      </c>
+      <c r="G129" t="n">
+        <v>391876</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I129" t="n">
+        <v>10</v>
+      </c>
+      <c r="J129" t="n">
+        <v>31</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>44</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B130" t="n">
+        <v>756.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>772.7999877929688</v>
+      </c>
+      <c r="D130" t="n">
+        <v>755.75</v>
+      </c>
+      <c r="E130" t="n">
+        <v>759.25</v>
+      </c>
+      <c r="F130" t="n">
+        <v>759.25</v>
+      </c>
+      <c r="G130" t="n">
+        <v>119077</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I130" t="n">
+        <v>11</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>44</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R130"/>
+  <dimension ref="A1:R135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7237,7 +7237,7 @@
         <v>43</v>
       </c>
       <c r="O121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>43</v>
       </c>
       <c r="O125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P125" t="n">
         <v>0</v>
@@ -7525,7 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
-      <c r="R126" t="inlineStr"/>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7579,7 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
-      <c r="R127" t="inlineStr"/>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7633,7 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
-      <c r="R128" t="inlineStr"/>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7687,7 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
-      <c r="R129" t="inlineStr"/>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7741,7 +7749,279 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
-      <c r="R130" t="inlineStr"/>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B131" t="n">
+        <v>757.7999877929688</v>
+      </c>
+      <c r="C131" t="n">
+        <v>757.7999877929688</v>
+      </c>
+      <c r="D131" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="E131" t="n">
+        <v>732.8499755859375</v>
+      </c>
+      <c r="F131" t="n">
+        <v>732.8499755859375</v>
+      </c>
+      <c r="G131" t="n">
+        <v>301114</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I131" t="n">
+        <v>11</v>
+      </c>
+      <c r="J131" t="n">
+        <v>4</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>45</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B132" t="n">
+        <v>733</v>
+      </c>
+      <c r="C132" t="n">
+        <v>740.7000122070312</v>
+      </c>
+      <c r="D132" t="n">
+        <v>718.9000244140625</v>
+      </c>
+      <c r="E132" t="n">
+        <v>730.1500244140625</v>
+      </c>
+      <c r="F132" t="n">
+        <v>730.1500244140625</v>
+      </c>
+      <c r="G132" t="n">
+        <v>211293</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I132" t="n">
+        <v>11</v>
+      </c>
+      <c r="J132" t="n">
+        <v>5</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>45</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B133" t="n">
+        <v>732.9500122070312</v>
+      </c>
+      <c r="C133" t="n">
+        <v>787</v>
+      </c>
+      <c r="D133" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E133" t="n">
+        <v>783</v>
+      </c>
+      <c r="F133" t="n">
+        <v>783</v>
+      </c>
+      <c r="G133" t="n">
+        <v>765718</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I133" t="n">
+        <v>11</v>
+      </c>
+      <c r="J133" t="n">
+        <v>6</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>45</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B134" t="n">
+        <v>787</v>
+      </c>
+      <c r="C134" t="n">
+        <v>821</v>
+      </c>
+      <c r="D134" t="n">
+        <v>787</v>
+      </c>
+      <c r="E134" t="n">
+        <v>805.2000122070312</v>
+      </c>
+      <c r="F134" t="n">
+        <v>805.2000122070312</v>
+      </c>
+      <c r="G134" t="n">
+        <v>777514</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I134" t="n">
+        <v>11</v>
+      </c>
+      <c r="J134" t="n">
+        <v>7</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>45</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B135" t="n">
+        <v>810</v>
+      </c>
+      <c r="C135" t="n">
+        <v>815.4500122070312</v>
+      </c>
+      <c r="D135" t="n">
+        <v>763.2999877929688</v>
+      </c>
+      <c r="E135" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="G135" t="n">
+        <v>473790</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I135" t="n">
+        <v>11</v>
+      </c>
+      <c r="J135" t="n">
+        <v>8</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>45</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R135"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7805,7 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
-      <c r="R131" t="inlineStr"/>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7859,7 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
-      <c r="R132" t="inlineStr"/>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7913,7 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
-      <c r="R133" t="inlineStr"/>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7967,7 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
-      <c r="R134" t="inlineStr"/>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -8021,7 +8029,225 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
-      <c r="R135" t="inlineStr"/>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B136" t="n">
+        <v>789.0499877929688</v>
+      </c>
+      <c r="C136" t="n">
+        <v>789.0499877929688</v>
+      </c>
+      <c r="D136" t="n">
+        <v>765</v>
+      </c>
+      <c r="E136" t="n">
+        <v>769.0999755859375</v>
+      </c>
+      <c r="F136" t="n">
+        <v>769.0999755859375</v>
+      </c>
+      <c r="G136" t="n">
+        <v>283441</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I136" t="n">
+        <v>11</v>
+      </c>
+      <c r="J136" t="n">
+        <v>11</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>46</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B137" t="n">
+        <v>774.4000244140625</v>
+      </c>
+      <c r="C137" t="n">
+        <v>787</v>
+      </c>
+      <c r="D137" t="n">
+        <v>749</v>
+      </c>
+      <c r="E137" t="n">
+        <v>756.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>756.5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>334137</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I137" t="n">
+        <v>11</v>
+      </c>
+      <c r="J137" t="n">
+        <v>12</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>46</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B138" t="n">
+        <v>752</v>
+      </c>
+      <c r="C138" t="n">
+        <v>757.5999755859375</v>
+      </c>
+      <c r="D138" t="n">
+        <v>711.2999877929688</v>
+      </c>
+      <c r="E138" t="n">
+        <v>716</v>
+      </c>
+      <c r="F138" t="n">
+        <v>716</v>
+      </c>
+      <c r="G138" t="n">
+        <v>408875</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I138" t="n">
+        <v>11</v>
+      </c>
+      <c r="J138" t="n">
+        <v>13</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>46</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B139" t="n">
+        <v>718.9500122070312</v>
+      </c>
+      <c r="C139" t="n">
+        <v>755</v>
+      </c>
+      <c r="D139" t="n">
+        <v>717.9500122070312</v>
+      </c>
+      <c r="E139" t="n">
+        <v>750</v>
+      </c>
+      <c r="F139" t="n">
+        <v>750</v>
+      </c>
+      <c r="G139" t="n">
+        <v>505120</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I139" t="n">
+        <v>11</v>
+      </c>
+      <c r="J139" t="n">
+        <v>14</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>46</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8085,7 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
-      <c r="R136" t="inlineStr"/>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -8139,7 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
-      <c r="R137" t="inlineStr"/>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -8193,7 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
-      <c r="R138" t="inlineStr"/>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -8247,7 +8253,225 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
-      <c r="R139" t="inlineStr"/>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B140" t="n">
+        <v>752</v>
+      </c>
+      <c r="C140" t="n">
+        <v>769</v>
+      </c>
+      <c r="D140" t="n">
+        <v>738.2999877929688</v>
+      </c>
+      <c r="E140" t="n">
+        <v>747.9000244140625</v>
+      </c>
+      <c r="F140" t="n">
+        <v>747.9000244140625</v>
+      </c>
+      <c r="G140" t="n">
+        <v>335963</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I140" t="n">
+        <v>11</v>
+      </c>
+      <c r="J140" t="n">
+        <v>18</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>47</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B141" t="n">
+        <v>751.4500122070312</v>
+      </c>
+      <c r="C141" t="n">
+        <v>768.2999877929688</v>
+      </c>
+      <c r="D141" t="n">
+        <v>745</v>
+      </c>
+      <c r="E141" t="n">
+        <v>748.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>748.5</v>
+      </c>
+      <c r="G141" t="n">
+        <v>234213</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I141" t="n">
+        <v>11</v>
+      </c>
+      <c r="J141" t="n">
+        <v>19</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>47</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B142" t="n">
+        <v>747.0499877929688</v>
+      </c>
+      <c r="C142" t="n">
+        <v>764.9500122070312</v>
+      </c>
+      <c r="D142" t="n">
+        <v>714</v>
+      </c>
+      <c r="E142" t="n">
+        <v>759.9000244140625</v>
+      </c>
+      <c r="F142" t="n">
+        <v>759.9000244140625</v>
+      </c>
+      <c r="G142" t="n">
+        <v>589569</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I142" t="n">
+        <v>11</v>
+      </c>
+      <c r="J142" t="n">
+        <v>21</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>47</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B143" t="n">
+        <v>763</v>
+      </c>
+      <c r="C143" t="n">
+        <v>763</v>
+      </c>
+      <c r="D143" t="n">
+        <v>732</v>
+      </c>
+      <c r="E143" t="n">
+        <v>744.2999877929688</v>
+      </c>
+      <c r="F143" t="n">
+        <v>744.2999877929688</v>
+      </c>
+      <c r="G143" t="n">
+        <v>381434</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I143" t="n">
+        <v>11</v>
+      </c>
+      <c r="J143" t="n">
+        <v>22</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>47</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R143"/>
+  <dimension ref="A1:R148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7965,7 +7965,7 @@
         <v>45</v>
       </c>
       <c r="O134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" t="n">
         <v>0</v>
@@ -8189,7 +8189,7 @@
         <v>46</v>
       </c>
       <c r="O138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P138" t="n">
         <v>0</v>
@@ -8309,7 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -8363,7 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -8417,7 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
-      <c r="R142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8471,7 +8477,279 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
-      <c r="R143" t="inlineStr"/>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B144" t="n">
+        <v>748.0499877929688</v>
+      </c>
+      <c r="C144" t="n">
+        <v>763.8499755859375</v>
+      </c>
+      <c r="D144" t="n">
+        <v>726.5999755859375</v>
+      </c>
+      <c r="E144" t="n">
+        <v>741.0499877929688</v>
+      </c>
+      <c r="F144" t="n">
+        <v>741.0499877929688</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1228023</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I144" t="n">
+        <v>11</v>
+      </c>
+      <c r="J144" t="n">
+        <v>25</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>48</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B145" t="n">
+        <v>734.5999755859375</v>
+      </c>
+      <c r="C145" t="n">
+        <v>749</v>
+      </c>
+      <c r="D145" t="n">
+        <v>731.9000244140625</v>
+      </c>
+      <c r="E145" t="n">
+        <v>734.5499877929688</v>
+      </c>
+      <c r="F145" t="n">
+        <v>734.5499877929688</v>
+      </c>
+      <c r="G145" t="n">
+        <v>251236</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I145" t="n">
+        <v>11</v>
+      </c>
+      <c r="J145" t="n">
+        <v>26</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>48</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B146" t="n">
+        <v>734</v>
+      </c>
+      <c r="C146" t="n">
+        <v>736.7000122070312</v>
+      </c>
+      <c r="D146" t="n">
+        <v>726.4000244140625</v>
+      </c>
+      <c r="E146" t="n">
+        <v>732.8499755859375</v>
+      </c>
+      <c r="F146" t="n">
+        <v>732.8499755859375</v>
+      </c>
+      <c r="G146" t="n">
+        <v>217574</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I146" t="n">
+        <v>11</v>
+      </c>
+      <c r="J146" t="n">
+        <v>27</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>48</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B147" t="n">
+        <v>734.6500244140625</v>
+      </c>
+      <c r="C147" t="n">
+        <v>740</v>
+      </c>
+      <c r="D147" t="n">
+        <v>721</v>
+      </c>
+      <c r="E147" t="n">
+        <v>724.0499877929688</v>
+      </c>
+      <c r="F147" t="n">
+        <v>724.0499877929688</v>
+      </c>
+      <c r="G147" t="n">
+        <v>276525</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I147" t="n">
+        <v>11</v>
+      </c>
+      <c r="J147" t="n">
+        <v>28</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>48</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B148" t="n">
+        <v>726.7000122070312</v>
+      </c>
+      <c r="C148" t="n">
+        <v>752.4500122070312</v>
+      </c>
+      <c r="D148" t="n">
+        <v>726</v>
+      </c>
+      <c r="E148" t="n">
+        <v>744.25</v>
+      </c>
+      <c r="F148" t="n">
+        <v>744.25</v>
+      </c>
+      <c r="G148" t="n">
+        <v>414551</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I148" t="n">
+        <v>11</v>
+      </c>
+      <c r="J148" t="n">
+        <v>29</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>48</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R148"/>
+  <dimension ref="A1:R153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8533,7 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
-      <c r="R144" t="inlineStr"/>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8587,7 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
-      <c r="R145" t="inlineStr"/>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8641,7 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
-      <c r="R146" t="inlineStr"/>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8695,7 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
-      <c r="R147" t="inlineStr"/>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8749,7 +8757,279 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
-      <c r="R148" t="inlineStr"/>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B149" t="n">
+        <v>744.25</v>
+      </c>
+      <c r="C149" t="n">
+        <v>750.4000244140625</v>
+      </c>
+      <c r="D149" t="n">
+        <v>732.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>736.2999877929688</v>
+      </c>
+      <c r="F149" t="n">
+        <v>736.2999877929688</v>
+      </c>
+      <c r="G149" t="n">
+        <v>307182</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I149" t="n">
+        <v>12</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>49</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B150" t="n">
+        <v>738</v>
+      </c>
+      <c r="C150" t="n">
+        <v>759</v>
+      </c>
+      <c r="D150" t="n">
+        <v>738</v>
+      </c>
+      <c r="E150" t="n">
+        <v>745.25</v>
+      </c>
+      <c r="F150" t="n">
+        <v>745.25</v>
+      </c>
+      <c r="G150" t="n">
+        <v>316946</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I150" t="n">
+        <v>12</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>49</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B151" t="n">
+        <v>746</v>
+      </c>
+      <c r="C151" t="n">
+        <v>754</v>
+      </c>
+      <c r="D151" t="n">
+        <v>735.7999877929688</v>
+      </c>
+      <c r="E151" t="n">
+        <v>741.2000122070312</v>
+      </c>
+      <c r="F151" t="n">
+        <v>741.2000122070312</v>
+      </c>
+      <c r="G151" t="n">
+        <v>327274</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I151" t="n">
+        <v>12</v>
+      </c>
+      <c r="J151" t="n">
+        <v>4</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>49</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B152" t="n">
+        <v>742.7000122070312</v>
+      </c>
+      <c r="C152" t="n">
+        <v>797.9000244140625</v>
+      </c>
+      <c r="D152" t="n">
+        <v>742</v>
+      </c>
+      <c r="E152" t="n">
+        <v>790.8499755859375</v>
+      </c>
+      <c r="F152" t="n">
+        <v>790.8499755859375</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1263688</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I152" t="n">
+        <v>12</v>
+      </c>
+      <c r="J152" t="n">
+        <v>5</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>49</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B153" t="n">
+        <v>805</v>
+      </c>
+      <c r="C153" t="n">
+        <v>828</v>
+      </c>
+      <c r="D153" t="n">
+        <v>802.2999877929688</v>
+      </c>
+      <c r="E153" t="n">
+        <v>806.75</v>
+      </c>
+      <c r="F153" t="n">
+        <v>806.75</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1255988</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I153" t="n">
+        <v>12</v>
+      </c>
+      <c r="J153" t="n">
+        <v>6</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>49</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R153"/>
+  <dimension ref="A1:R163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8813,7 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
-      <c r="R149" t="inlineStr"/>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8867,7 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
-      <c r="R150" t="inlineStr"/>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8921,7 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
-      <c r="R151" t="inlineStr"/>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8975,7 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
-      <c r="R152" t="inlineStr"/>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -9029,7 +9037,529 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
-      <c r="R153" t="inlineStr"/>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B154" t="n">
+        <v>812</v>
+      </c>
+      <c r="C154" t="n">
+        <v>824</v>
+      </c>
+      <c r="D154" t="n">
+        <v>788.0999755859375</v>
+      </c>
+      <c r="E154" t="n">
+        <v>802.5999755859375</v>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>610217</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I154" t="n">
+        <v>12</v>
+      </c>
+      <c r="J154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>50</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B155" t="n">
+        <v>808.7999877929688</v>
+      </c>
+      <c r="C155" t="n">
+        <v>842.2999877929688</v>
+      </c>
+      <c r="D155" t="n">
+        <v>797.0499877929688</v>
+      </c>
+      <c r="E155" t="n">
+        <v>835.9500122070312</v>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>1714511</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I155" t="n">
+        <v>12</v>
+      </c>
+      <c r="J155" t="n">
+        <v>10</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>50</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B156" t="n">
+        <v>842.5999755859375</v>
+      </c>
+      <c r="C156" t="n">
+        <v>852.8499755859375</v>
+      </c>
+      <c r="D156" t="n">
+        <v>821.75</v>
+      </c>
+      <c r="E156" t="n">
+        <v>827.2999877929688</v>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>762283</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I156" t="n">
+        <v>12</v>
+      </c>
+      <c r="J156" t="n">
+        <v>11</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>50</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B157" t="n">
+        <v>832</v>
+      </c>
+      <c r="C157" t="n">
+        <v>832.7000122070312</v>
+      </c>
+      <c r="D157" t="n">
+        <v>802.0499877929688</v>
+      </c>
+      <c r="E157" t="n">
+        <v>810.9000244140625</v>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>476542</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I157" t="n">
+        <v>12</v>
+      </c>
+      <c r="J157" t="n">
+        <v>12</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>50</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B158" t="n">
+        <v>811.7000122070312</v>
+      </c>
+      <c r="C158" t="n">
+        <v>813.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>783.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>799.25</v>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="n">
+        <v>500362</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I158" t="n">
+        <v>12</v>
+      </c>
+      <c r="J158" t="n">
+        <v>13</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>50</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B159" t="n">
+        <v>797</v>
+      </c>
+      <c r="C159" t="n">
+        <v>825</v>
+      </c>
+      <c r="D159" t="n">
+        <v>780.0999755859375</v>
+      </c>
+      <c r="E159" t="n">
+        <v>821</v>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="n">
+        <v>627758</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I159" t="n">
+        <v>12</v>
+      </c>
+      <c r="J159" t="n">
+        <v>16</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>51</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B160" t="n">
+        <v>820</v>
+      </c>
+      <c r="C160" t="n">
+        <v>840</v>
+      </c>
+      <c r="D160" t="n">
+        <v>809</v>
+      </c>
+      <c r="E160" t="n">
+        <v>831.3499755859375</v>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>919589</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I160" t="n">
+        <v>12</v>
+      </c>
+      <c r="J160" t="n">
+        <v>17</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>51</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B161" t="n">
+        <v>832.7000122070312</v>
+      </c>
+      <c r="C161" t="n">
+        <v>867.7000122070312</v>
+      </c>
+      <c r="D161" t="n">
+        <v>811.9500122070312</v>
+      </c>
+      <c r="E161" t="n">
+        <v>819.8499755859375</v>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>1581761</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I161" t="n">
+        <v>12</v>
+      </c>
+      <c r="J161" t="n">
+        <v>18</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>51</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B162" t="n">
+        <v>797.0499877929688</v>
+      </c>
+      <c r="C162" t="n">
+        <v>817.9500122070312</v>
+      </c>
+      <c r="D162" t="n">
+        <v>790</v>
+      </c>
+      <c r="E162" t="n">
+        <v>803.0999755859375</v>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="n">
+        <v>476314</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I162" t="n">
+        <v>12</v>
+      </c>
+      <c r="J162" t="n">
+        <v>19</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>51</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B163" t="n">
+        <v>804.7000122070312</v>
+      </c>
+      <c r="C163" t="n">
+        <v>814.8499755859375</v>
+      </c>
+      <c r="D163" t="n">
+        <v>755</v>
+      </c>
+      <c r="E163" t="n">
+        <v>771.9500122070312</v>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>368169</v>
+      </c>
+      <c r="H163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I163" t="n">
+        <v>12</v>
+      </c>
+      <c r="J163" t="n">
+        <v>20</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>51</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R163"/>
+  <dimension ref="A1:R167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9091,7 +9091,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
-      <c r="R154" t="inlineStr"/>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -9143,7 +9145,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
-      <c r="R155" t="inlineStr"/>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -9195,7 +9199,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
-      <c r="R156" t="inlineStr"/>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -9247,7 +9253,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
-      <c r="R157" t="inlineStr"/>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -9299,7 +9307,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
-      <c r="R158" t="inlineStr"/>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -9351,7 +9361,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
-      <c r="R159" t="inlineStr"/>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -9403,7 +9415,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
-      <c r="R160" t="inlineStr"/>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9455,7 +9469,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
-      <c r="R161" t="inlineStr"/>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9507,7 +9523,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
-      <c r="R162" t="inlineStr"/>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9559,7 +9577,217 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
-      <c r="R163" t="inlineStr"/>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B164" t="n">
+        <v>775</v>
+      </c>
+      <c r="C164" t="n">
+        <v>798.7000122070312</v>
+      </c>
+      <c r="D164" t="n">
+        <v>761</v>
+      </c>
+      <c r="E164" t="n">
+        <v>787.4000244140625</v>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="n">
+        <v>381639</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I164" t="n">
+        <v>12</v>
+      </c>
+      <c r="J164" t="n">
+        <v>23</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>52</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B165" t="n">
+        <v>786</v>
+      </c>
+      <c r="C165" t="n">
+        <v>788.9500122070312</v>
+      </c>
+      <c r="D165" t="n">
+        <v>760.1500244140625</v>
+      </c>
+      <c r="E165" t="n">
+        <v>763.25</v>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="n">
+        <v>353141</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I165" t="n">
+        <v>12</v>
+      </c>
+      <c r="J165" t="n">
+        <v>24</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>52</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B166" t="n">
+        <v>763</v>
+      </c>
+      <c r="C166" t="n">
+        <v>763.75</v>
+      </c>
+      <c r="D166" t="n">
+        <v>743.0999755859375</v>
+      </c>
+      <c r="E166" t="n">
+        <v>757.7999877929688</v>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="n">
+        <v>239815</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I166" t="n">
+        <v>12</v>
+      </c>
+      <c r="J166" t="n">
+        <v>26</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>52</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B167" t="n">
+        <v>759.7000122070312</v>
+      </c>
+      <c r="C167" t="n">
+        <v>763.9000244140625</v>
+      </c>
+      <c r="D167" t="n">
+        <v>740.25</v>
+      </c>
+      <c r="E167" t="n">
+        <v>742.4500122070312</v>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="n">
+        <v>270912</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I167" t="n">
+        <v>12</v>
+      </c>
+      <c r="J167" t="n">
+        <v>27</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>52</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R167"/>
+  <dimension ref="A1:R172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9461,7 +9461,7 @@
         <v>51</v>
       </c>
       <c r="O161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P161" t="n">
         <v>0</v>
@@ -9631,7 +9631,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
-      <c r="R164" t="inlineStr"/>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9683,7 +9685,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
-      <c r="R165" t="inlineStr"/>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9735,7 +9739,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
-      <c r="R166" t="inlineStr"/>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9787,7 +9793,269 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
-      <c r="R167" t="inlineStr"/>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B168" t="n">
+        <v>742.4500122070312</v>
+      </c>
+      <c r="C168" t="n">
+        <v>805</v>
+      </c>
+      <c r="D168" t="n">
+        <v>738.0999755859375</v>
+      </c>
+      <c r="E168" t="n">
+        <v>787.9000244140625</v>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="n">
+        <v>667917</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I168" t="n">
+        <v>12</v>
+      </c>
+      <c r="J168" t="n">
+        <v>30</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B169" t="n">
+        <v>782.0499877929688</v>
+      </c>
+      <c r="C169" t="n">
+        <v>795</v>
+      </c>
+      <c r="D169" t="n">
+        <v>762.4500122070312</v>
+      </c>
+      <c r="E169" t="n">
+        <v>791.2000122070312</v>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="n">
+        <v>251644</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I169" t="n">
+        <v>12</v>
+      </c>
+      <c r="J169" t="n">
+        <v>31</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B170" t="n">
+        <v>791</v>
+      </c>
+      <c r="C170" t="n">
+        <v>798.9000244140625</v>
+      </c>
+      <c r="D170" t="n">
+        <v>783.1500244140625</v>
+      </c>
+      <c r="E170" t="n">
+        <v>790.1500244140625</v>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>166259</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B171" t="n">
+        <v>790</v>
+      </c>
+      <c r="C171" t="n">
+        <v>817.9000244140625</v>
+      </c>
+      <c r="D171" t="n">
+        <v>785.7000122070312</v>
+      </c>
+      <c r="E171" t="n">
+        <v>790.5499877929688</v>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>327850</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B172" t="n">
+        <v>790.5499877929688</v>
+      </c>
+      <c r="C172" t="n">
+        <v>798.0999755859375</v>
+      </c>
+      <c r="D172" t="n">
+        <v>775.1500244140625</v>
+      </c>
+      <c r="E172" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="n">
+        <v>236466</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>3</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R172"/>
+  <dimension ref="A1:R177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9847,7 +9847,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
-      <c r="R168" t="inlineStr"/>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9899,7 +9901,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
-      <c r="R169" t="inlineStr"/>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9951,7 +9955,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
-      <c r="R170" t="inlineStr"/>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -10003,7 +10009,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
-      <c r="R171" t="inlineStr"/>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -10055,7 +10063,269 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
-      <c r="R172" t="inlineStr"/>
+      <c r="R172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B173" t="n">
+        <v>783.75</v>
+      </c>
+      <c r="C173" t="n">
+        <v>783.8499755859375</v>
+      </c>
+      <c r="D173" t="n">
+        <v>733.2000122070312</v>
+      </c>
+      <c r="E173" t="n">
+        <v>739.9500122070312</v>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="n">
+        <v>351519</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>6</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>2</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B174" t="n">
+        <v>742</v>
+      </c>
+      <c r="C174" t="n">
+        <v>767.9000244140625</v>
+      </c>
+      <c r="D174" t="n">
+        <v>741.9500122070312</v>
+      </c>
+      <c r="E174" t="n">
+        <v>757.8499755859375</v>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>199519</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>7</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B175" t="n">
+        <v>759</v>
+      </c>
+      <c r="C175" t="n">
+        <v>759.9500122070312</v>
+      </c>
+      <c r="D175" t="n">
+        <v>739.0499877929688</v>
+      </c>
+      <c r="E175" t="n">
+        <v>741.0999755859375</v>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="n">
+        <v>153223</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>8</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>2</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B176" t="n">
+        <v>741.25</v>
+      </c>
+      <c r="C176" t="n">
+        <v>752</v>
+      </c>
+      <c r="D176" t="n">
+        <v>734.5999755859375</v>
+      </c>
+      <c r="E176" t="n">
+        <v>743.0499877929688</v>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="n">
+        <v>128282</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>9</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>2</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B177" t="n">
+        <v>743.0499877929688</v>
+      </c>
+      <c r="C177" t="n">
+        <v>753.2999877929688</v>
+      </c>
+      <c r="D177" t="n">
+        <v>691</v>
+      </c>
+      <c r="E177" t="n">
+        <v>702</v>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="n">
+        <v>617446</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>10</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R177"/>
+  <dimension ref="A1:R182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10117,7 +10117,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
-      <c r="R173" t="inlineStr"/>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -10169,7 +10171,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
-      <c r="R174" t="inlineStr"/>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -10221,7 +10225,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
-      <c r="R175" t="inlineStr"/>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -10273,7 +10279,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
-      <c r="R176" t="inlineStr"/>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -10325,7 +10333,269 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
-      <c r="R177" t="inlineStr"/>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B178" t="n">
+        <v>685.2000122070312</v>
+      </c>
+      <c r="C178" t="n">
+        <v>713.5999755859375</v>
+      </c>
+      <c r="D178" t="n">
+        <v>631.5999755859375</v>
+      </c>
+      <c r="E178" t="n">
+        <v>641.25</v>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="n">
+        <v>706221</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>13</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B179" t="n">
+        <v>647.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>701</v>
+      </c>
+      <c r="D179" t="n">
+        <v>636.2999877929688</v>
+      </c>
+      <c r="E179" t="n">
+        <v>692.25</v>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="n">
+        <v>384998</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>14</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>3</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B180" t="n">
+        <v>697</v>
+      </c>
+      <c r="C180" t="n">
+        <v>703.4500122070312</v>
+      </c>
+      <c r="D180" t="n">
+        <v>659</v>
+      </c>
+      <c r="E180" t="n">
+        <v>675.7999877929688</v>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>307458</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>15</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>3</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B181" t="n">
+        <v>682</v>
+      </c>
+      <c r="C181" t="n">
+        <v>727.0999755859375</v>
+      </c>
+      <c r="D181" t="n">
+        <v>682</v>
+      </c>
+      <c r="E181" t="n">
+        <v>704.0999755859375</v>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>312521</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>16</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>3</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B182" t="n">
+        <v>699.7999877929688</v>
+      </c>
+      <c r="C182" t="n">
+        <v>725</v>
+      </c>
+      <c r="D182" t="n">
+        <v>695</v>
+      </c>
+      <c r="E182" t="n">
+        <v>705.9500122070312</v>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>235657</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>17</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>3</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R182"/>
+  <dimension ref="A1:R187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10387,7 +10387,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
-      <c r="R178" t="inlineStr"/>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -10439,7 +10441,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
-      <c r="R179" t="inlineStr"/>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10491,7 +10495,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
-      <c r="R180" t="inlineStr"/>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10543,7 +10549,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
-      <c r="R181" t="inlineStr"/>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10595,7 +10603,269 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
-      <c r="R182" t="inlineStr"/>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B183" t="n">
+        <v>709.5999755859375</v>
+      </c>
+      <c r="C183" t="n">
+        <v>716</v>
+      </c>
+      <c r="D183" t="n">
+        <v>690.9000244140625</v>
+      </c>
+      <c r="E183" t="n">
+        <v>703.75</v>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>227871</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>20</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>4</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B184" t="n">
+        <v>711.2000122070312</v>
+      </c>
+      <c r="C184" t="n">
+        <v>715</v>
+      </c>
+      <c r="D184" t="n">
+        <v>692.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>696.1500244140625</v>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>191839</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>21</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>4</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B185" t="n">
+        <v>699.5</v>
+      </c>
+      <c r="C185" t="n">
+        <v>699.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>627.4500122070312</v>
+      </c>
+      <c r="E185" t="n">
+        <v>653.7999877929688</v>
+      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>704469</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>22</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>4</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B186" t="n">
+        <v>653.7999877929688</v>
+      </c>
+      <c r="C186" t="n">
+        <v>678</v>
+      </c>
+      <c r="D186" t="n">
+        <v>647</v>
+      </c>
+      <c r="E186" t="n">
+        <v>649.0499877929688</v>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="n">
+        <v>452417</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>23</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>4</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B187" t="n">
+        <v>651</v>
+      </c>
+      <c r="C187" t="n">
+        <v>659.4500122070312</v>
+      </c>
+      <c r="D187" t="n">
+        <v>621.7999877929688</v>
+      </c>
+      <c r="E187" t="n">
+        <v>625.6500244140625</v>
+      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>389142</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>24</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>4</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R187"/>
+  <dimension ref="A1:R192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10657,7 +10657,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
-      <c r="R183" t="inlineStr"/>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10709,7 +10711,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
-      <c r="R184" t="inlineStr"/>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10761,7 +10765,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
-      <c r="R185" t="inlineStr"/>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10813,7 +10819,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
-      <c r="R186" t="inlineStr"/>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10865,7 +10873,269 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
-      <c r="R187" t="inlineStr"/>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B188" t="n">
+        <v>625.7000122070312</v>
+      </c>
+      <c r="C188" t="n">
+        <v>625.7000122070312</v>
+      </c>
+      <c r="D188" t="n">
+        <v>554.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>584</v>
+      </c>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="n">
+        <v>802926</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>27</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>5</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B189" t="n">
+        <v>592</v>
+      </c>
+      <c r="C189" t="n">
+        <v>610</v>
+      </c>
+      <c r="D189" t="n">
+        <v>512.8499755859375</v>
+      </c>
+      <c r="E189" t="n">
+        <v>538.4000244140625</v>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="n">
+        <v>931954</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>28</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>5</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B190" t="n">
+        <v>540</v>
+      </c>
+      <c r="C190" t="n">
+        <v>610</v>
+      </c>
+      <c r="D190" t="n">
+        <v>538.4000244140625</v>
+      </c>
+      <c r="E190" t="n">
+        <v>596.5499877929688</v>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="n">
+        <v>1069850</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>29</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>5</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B191" t="n">
+        <v>602.6500244140625</v>
+      </c>
+      <c r="C191" t="n">
+        <v>602.6500244140625</v>
+      </c>
+      <c r="D191" t="n">
+        <v>557.3499755859375</v>
+      </c>
+      <c r="E191" t="n">
+        <v>562.3499755859375</v>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>797297</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>30</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>5</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B192" t="n">
+        <v>568</v>
+      </c>
+      <c r="C192" t="n">
+        <v>617.5999755859375</v>
+      </c>
+      <c r="D192" t="n">
+        <v>564.7999877929688</v>
+      </c>
+      <c r="E192" t="n">
+        <v>607.9000244140625</v>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>853718</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>31</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>5</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R192"/>
+  <dimension ref="A1:R197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10927,7 +10927,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
-      <c r="R188" t="inlineStr"/>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10979,7 +10981,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
-      <c r="R189" t="inlineStr"/>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -11031,7 +11035,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
-      <c r="R190" t="inlineStr"/>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -11083,7 +11089,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
-      <c r="R191" t="inlineStr"/>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -11135,7 +11143,269 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B193" t="n">
+        <v>609</v>
+      </c>
+      <c r="C193" t="n">
+        <v>623.75</v>
+      </c>
+      <c r="D193" t="n">
+        <v>591</v>
+      </c>
+      <c r="E193" t="n">
+        <v>594.4500122070312</v>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>499094</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I193" t="n">
+        <v>2</v>
+      </c>
+      <c r="J193" t="n">
+        <v>3</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>6</v>
+      </c>
+      <c r="O193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B194" t="n">
+        <v>606</v>
+      </c>
+      <c r="C194" t="n">
+        <v>616.9000244140625</v>
+      </c>
+      <c r="D194" t="n">
+        <v>600</v>
+      </c>
+      <c r="E194" t="n">
+        <v>613.4500122070312</v>
+      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>511875</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I194" t="n">
+        <v>2</v>
+      </c>
+      <c r="J194" t="n">
+        <v>4</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>6</v>
+      </c>
+      <c r="O194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B195" t="n">
+        <v>617.9000244140625</v>
+      </c>
+      <c r="C195" t="n">
+        <v>655.9500122070312</v>
+      </c>
+      <c r="D195" t="n">
+        <v>617</v>
+      </c>
+      <c r="E195" t="n">
+        <v>627.6500244140625</v>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>825899</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2</v>
+      </c>
+      <c r="J195" t="n">
+        <v>5</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>6</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B196" t="n">
+        <v>625</v>
+      </c>
+      <c r="C196" t="n">
+        <v>657</v>
+      </c>
+      <c r="D196" t="n">
+        <v>616.2999877929688</v>
+      </c>
+      <c r="E196" t="n">
+        <v>643.5499877929688</v>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>934514</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I196" t="n">
+        <v>2</v>
+      </c>
+      <c r="J196" t="n">
+        <v>6</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>6</v>
+      </c>
+      <c r="O196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B197" t="n">
+        <v>645.0999755859375</v>
+      </c>
+      <c r="C197" t="n">
+        <v>668</v>
+      </c>
+      <c r="D197" t="n">
+        <v>631.7000122070312</v>
+      </c>
+      <c r="E197" t="n">
+        <v>653.6500244140625</v>
+      </c>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>3202393</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I197" t="n">
+        <v>2</v>
+      </c>
+      <c r="J197" t="n">
+        <v>7</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>6</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R197" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R197"/>
+  <dimension ref="A1:R202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10973,7 +10973,7 @@
         <v>5</v>
       </c>
       <c r="O189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P189" t="n">
         <v>0</v>
@@ -11197,7 +11197,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -11249,7 +11251,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
-      <c r="R194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -11301,7 +11305,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
-      <c r="R195" t="inlineStr"/>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -11353,7 +11359,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
-      <c r="R196" t="inlineStr"/>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -11405,7 +11413,269 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B198" t="n">
+        <v>671.2000122070312</v>
+      </c>
+      <c r="C198" t="n">
+        <v>679</v>
+      </c>
+      <c r="D198" t="n">
+        <v>622.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>641.9000244140625</v>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>1177380</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2</v>
+      </c>
+      <c r="J198" t="n">
+        <v>10</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>7</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B199" t="n">
+        <v>645.4000244140625</v>
+      </c>
+      <c r="C199" t="n">
+        <v>645.4000244140625</v>
+      </c>
+      <c r="D199" t="n">
+        <v>600.1500244140625</v>
+      </c>
+      <c r="E199" t="n">
+        <v>606.6500244140625</v>
+      </c>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="n">
+        <v>507927</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I199" t="n">
+        <v>2</v>
+      </c>
+      <c r="J199" t="n">
+        <v>11</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>7</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B200" t="n">
+        <v>602.7999877929688</v>
+      </c>
+      <c r="C200" t="n">
+        <v>606.2999877929688</v>
+      </c>
+      <c r="D200" t="n">
+        <v>558.3499755859375</v>
+      </c>
+      <c r="E200" t="n">
+        <v>593.8499755859375</v>
+      </c>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="n">
+        <v>790665</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I200" t="n">
+        <v>2</v>
+      </c>
+      <c r="J200" t="n">
+        <v>12</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>7</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B201" t="n">
+        <v>593.9000244140625</v>
+      </c>
+      <c r="C201" t="n">
+        <v>618.5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>585.8499755859375</v>
+      </c>
+      <c r="E201" t="n">
+        <v>590.75</v>
+      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="n">
+        <v>768481</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I201" t="n">
+        <v>2</v>
+      </c>
+      <c r="J201" t="n">
+        <v>13</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>7</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B202" t="n">
+        <v>593.9000244140625</v>
+      </c>
+      <c r="C202" t="n">
+        <v>597.4000244140625</v>
+      </c>
+      <c r="D202" t="n">
+        <v>529.9000244140625</v>
+      </c>
+      <c r="E202" t="n">
+        <v>538.8499755859375</v>
+      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="n">
+        <v>937039</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I202" t="n">
+        <v>2</v>
+      </c>
+      <c r="J202" t="n">
+        <v>14</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>7</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R202" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R202"/>
+  <dimension ref="A1:R211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11459,7 +11459,7 @@
         <v>7</v>
       </c>
       <c r="O198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P198" t="n">
         <v>0</v>
@@ -11467,7 +11467,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11519,7 +11521,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
-      <c r="R199" t="inlineStr"/>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11571,7 +11575,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
-      <c r="R200" t="inlineStr"/>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11623,7 +11629,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
-      <c r="R201" t="inlineStr"/>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11675,7 +11683,477 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
-      <c r="R202" t="inlineStr"/>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B203" t="n">
+        <v>529</v>
+      </c>
+      <c r="C203" t="n">
+        <v>551</v>
+      </c>
+      <c r="D203" t="n">
+        <v>514</v>
+      </c>
+      <c r="E203" t="n">
+        <v>530.8499755859375</v>
+      </c>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="n">
+        <v>712540</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I203" t="n">
+        <v>2</v>
+      </c>
+      <c r="J203" t="n">
+        <v>17</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>8</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B204" t="n">
+        <v>540</v>
+      </c>
+      <c r="C204" t="n">
+        <v>541</v>
+      </c>
+      <c r="D204" t="n">
+        <v>467</v>
+      </c>
+      <c r="E204" t="n">
+        <v>498.0499877929688</v>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="n">
+        <v>1775341</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I204" t="n">
+        <v>2</v>
+      </c>
+      <c r="J204" t="n">
+        <v>18</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>8</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B205" t="n">
+        <v>493.8500061035156</v>
+      </c>
+      <c r="C205" t="n">
+        <v>562.7999877929688</v>
+      </c>
+      <c r="D205" t="n">
+        <v>483.0499877929688</v>
+      </c>
+      <c r="E205" t="n">
+        <v>550.25</v>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="n">
+        <v>1210194</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I205" t="n">
+        <v>2</v>
+      </c>
+      <c r="J205" t="n">
+        <v>19</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>8</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B206" t="n">
+        <v>539.2000122070312</v>
+      </c>
+      <c r="C206" t="n">
+        <v>564.7999877929688</v>
+      </c>
+      <c r="D206" t="n">
+        <v>531.2000122070312</v>
+      </c>
+      <c r="E206" t="n">
+        <v>551.7999877929688</v>
+      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="n">
+        <v>636580</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>20</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>8</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B207" t="n">
+        <v>549.6500244140625</v>
+      </c>
+      <c r="C207" t="n">
+        <v>576.0999755859375</v>
+      </c>
+      <c r="D207" t="n">
+        <v>530</v>
+      </c>
+      <c r="E207" t="n">
+        <v>533.7999877929688</v>
+      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="n">
+        <v>645225</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J207" t="n">
+        <v>21</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>8</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B208" t="n">
+        <v>524</v>
+      </c>
+      <c r="C208" t="n">
+        <v>537.9500122070312</v>
+      </c>
+      <c r="D208" t="n">
+        <v>507.8999938964844</v>
+      </c>
+      <c r="E208" t="n">
+        <v>520.0499877929688</v>
+      </c>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="n">
+        <v>446435</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J208" t="n">
+        <v>24</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>9</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B209" t="n">
+        <v>524.5999755859375</v>
+      </c>
+      <c r="C209" t="n">
+        <v>534</v>
+      </c>
+      <c r="D209" t="n">
+        <v>512.9500122070312</v>
+      </c>
+      <c r="E209" t="n">
+        <v>515.1500244140625</v>
+      </c>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="n">
+        <v>311357</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I209" t="n">
+        <v>2</v>
+      </c>
+      <c r="J209" t="n">
+        <v>25</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>9</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B210" t="n">
+        <v>521.5</v>
+      </c>
+      <c r="C210" t="n">
+        <v>523.7000122070312</v>
+      </c>
+      <c r="D210" t="n">
+        <v>486.4500122070312</v>
+      </c>
+      <c r="E210" t="n">
+        <v>488.3500061035156</v>
+      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="n">
+        <v>538628</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2</v>
+      </c>
+      <c r="J210" t="n">
+        <v>27</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>9</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B211" t="n">
+        <v>484.3999938964844</v>
+      </c>
+      <c r="C211" t="n">
+        <v>498.6000061035156</v>
+      </c>
+      <c r="D211" t="n">
+        <v>458.9500122070312</v>
+      </c>
+      <c r="E211" t="n">
+        <v>477.0499877929688</v>
+      </c>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="n">
+        <v>926563</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I211" t="n">
+        <v>2</v>
+      </c>
+      <c r="J211" t="n">
+        <v>28</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>9</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R211"/>
+  <dimension ref="A1:R221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11149,23 +11149,23 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B193" t="n">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C193" t="n">
-        <v>623.75</v>
+        <v>625</v>
       </c>
       <c r="D193" t="n">
-        <v>591</v>
+        <v>587.0499877929688</v>
       </c>
       <c r="E193" t="n">
-        <v>594.4500122070312</v>
+        <v>618.9000244140625</v>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
-        <v>499094</v>
+        <v>638572</v>
       </c>
       <c r="H193" t="n">
         <v>2025</v>
@@ -11174,7 +11174,7 @@
         <v>2</v>
       </c>
       <c r="J193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
@@ -11186,7 +11186,7 @@
         <v>0</v>
       </c>
       <c r="N193" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O193" t="n">
         <v>0</v>
@@ -11197,29 +11197,27 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
-      <c r="R193" t="n">
-        <v>0</v>
-      </c>
+      <c r="R193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B194" t="n">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C194" t="n">
-        <v>616.9000244140625</v>
+        <v>623.75</v>
       </c>
       <c r="D194" t="n">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E194" t="n">
-        <v>613.4500122070312</v>
+        <v>594.4500122070312</v>
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
-        <v>511875</v>
+        <v>499094</v>
       </c>
       <c r="H194" t="n">
         <v>2025</v>
@@ -11228,7 +11226,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
@@ -11257,23 +11255,23 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="B195" t="n">
-        <v>617.9000244140625</v>
+        <v>606</v>
       </c>
       <c r="C195" t="n">
-        <v>655.9500122070312</v>
+        <v>616.9000244140625</v>
       </c>
       <c r="D195" t="n">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="E195" t="n">
-        <v>627.6500244140625</v>
+        <v>613.4500122070312</v>
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="n">
-        <v>825899</v>
+        <v>511875</v>
       </c>
       <c r="H195" t="n">
         <v>2025</v>
@@ -11282,7 +11280,7 @@
         <v>2</v>
       </c>
       <c r="J195" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K195" t="n">
         <v>0</v>
@@ -11311,23 +11309,23 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="B196" t="n">
-        <v>625</v>
+        <v>617.9000244140625</v>
       </c>
       <c r="C196" t="n">
-        <v>657</v>
+        <v>655.9500122070312</v>
       </c>
       <c r="D196" t="n">
-        <v>616.2999877929688</v>
+        <v>617</v>
       </c>
       <c r="E196" t="n">
-        <v>643.5499877929688</v>
+        <v>627.6500244140625</v>
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="n">
-        <v>934514</v>
+        <v>825899</v>
       </c>
       <c r="H196" t="n">
         <v>2025</v>
@@ -11336,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="J196" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
@@ -11365,23 +11363,23 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="B197" t="n">
-        <v>645.0999755859375</v>
+        <v>625</v>
       </c>
       <c r="C197" t="n">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="D197" t="n">
-        <v>631.7000122070312</v>
+        <v>616.2999877929688</v>
       </c>
       <c r="E197" t="n">
-        <v>653.6500244140625</v>
+        <v>643.5499877929688</v>
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
-        <v>3202393</v>
+        <v>934514</v>
       </c>
       <c r="H197" t="n">
         <v>2025</v>
@@ -11390,7 +11388,7 @@
         <v>2</v>
       </c>
       <c r="J197" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
@@ -11419,23 +11417,23 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B198" t="n">
-        <v>671.2000122070312</v>
+        <v>645.0999755859375</v>
       </c>
       <c r="C198" t="n">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="D198" t="n">
-        <v>622.5</v>
+        <v>631.7000122070312</v>
       </c>
       <c r="E198" t="n">
-        <v>641.9000244140625</v>
+        <v>653.6500244140625</v>
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="n">
-        <v>1177380</v>
+        <v>3202393</v>
       </c>
       <c r="H198" t="n">
         <v>2025</v>
@@ -11444,7 +11442,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
@@ -11456,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="N198" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P198" t="n">
         <v>0</v>
@@ -11473,23 +11471,23 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B199" t="n">
-        <v>645.4000244140625</v>
+        <v>671.2000122070312</v>
       </c>
       <c r="C199" t="n">
-        <v>645.4000244140625</v>
+        <v>679</v>
       </c>
       <c r="D199" t="n">
-        <v>600.1500244140625</v>
+        <v>622.5</v>
       </c>
       <c r="E199" t="n">
-        <v>606.6500244140625</v>
+        <v>641.9000244140625</v>
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="n">
-        <v>507927</v>
+        <v>1177380</v>
       </c>
       <c r="H199" t="n">
         <v>2025</v>
@@ -11498,7 +11496,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -11513,7 +11511,7 @@
         <v>7</v>
       </c>
       <c r="O199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P199" t="n">
         <v>0</v>
@@ -11527,23 +11525,23 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="B200" t="n">
-        <v>602.7999877929688</v>
+        <v>645.4000244140625</v>
       </c>
       <c r="C200" t="n">
-        <v>606.2999877929688</v>
+        <v>645.4000244140625</v>
       </c>
       <c r="D200" t="n">
-        <v>558.3499755859375</v>
+        <v>600.1500244140625</v>
       </c>
       <c r="E200" t="n">
-        <v>593.8499755859375</v>
+        <v>606.6500244140625</v>
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="n">
-        <v>790665</v>
+        <v>507927</v>
       </c>
       <c r="H200" t="n">
         <v>2025</v>
@@ -11552,7 +11550,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K200" t="n">
         <v>0</v>
@@ -11581,23 +11579,23 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="B201" t="n">
-        <v>593.9000244140625</v>
+        <v>602.7999877929688</v>
       </c>
       <c r="C201" t="n">
-        <v>618.5</v>
+        <v>606.2999877929688</v>
       </c>
       <c r="D201" t="n">
-        <v>585.8499755859375</v>
+        <v>558.3499755859375</v>
       </c>
       <c r="E201" t="n">
-        <v>590.75</v>
+        <v>593.8499755859375</v>
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="n">
-        <v>768481</v>
+        <v>790665</v>
       </c>
       <c r="H201" t="n">
         <v>2025</v>
@@ -11606,7 +11604,7 @@
         <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K201" t="n">
         <v>0</v>
@@ -11635,23 +11633,23 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="B202" t="n">
         <v>593.9000244140625</v>
       </c>
       <c r="C202" t="n">
-        <v>597.4000244140625</v>
+        <v>618.5</v>
       </c>
       <c r="D202" t="n">
-        <v>529.9000244140625</v>
+        <v>585.8499755859375</v>
       </c>
       <c r="E202" t="n">
-        <v>538.8499755859375</v>
+        <v>590.75</v>
       </c>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="n">
-        <v>937039</v>
+        <v>768481</v>
       </c>
       <c r="H202" t="n">
         <v>2025</v>
@@ -11660,7 +11658,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K202" t="n">
         <v>0</v>
@@ -11689,23 +11687,23 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B203" t="n">
-        <v>529</v>
+        <v>593.9000244140625</v>
       </c>
       <c r="C203" t="n">
-        <v>551</v>
+        <v>597.4000244140625</v>
       </c>
       <c r="D203" t="n">
-        <v>514</v>
+        <v>529.9000244140625</v>
       </c>
       <c r="E203" t="n">
-        <v>530.8499755859375</v>
+        <v>538.8499755859375</v>
       </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="n">
-        <v>712540</v>
+        <v>937039</v>
       </c>
       <c r="H203" t="n">
         <v>2025</v>
@@ -11714,7 +11712,7 @@
         <v>2</v>
       </c>
       <c r="J203" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -11726,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="N203" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O203" t="n">
         <v>0</v>
@@ -11737,27 +11735,29 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
-      <c r="R203" t="inlineStr"/>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B204" t="n">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C204" t="n">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="D204" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="E204" t="n">
-        <v>498.0499877929688</v>
+        <v>530.8499755859375</v>
       </c>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="n">
-        <v>1775341</v>
+        <v>712540</v>
       </c>
       <c r="H204" t="n">
         <v>2025</v>
@@ -11766,7 +11766,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -11789,27 +11789,29 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
-      <c r="R204" t="inlineStr"/>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="B205" t="n">
-        <v>493.8500061035156</v>
+        <v>540</v>
       </c>
       <c r="C205" t="n">
-        <v>562.7999877929688</v>
+        <v>541</v>
       </c>
       <c r="D205" t="n">
-        <v>483.0499877929688</v>
+        <v>467</v>
       </c>
       <c r="E205" t="n">
-        <v>550.25</v>
+        <v>498.0499877929688</v>
       </c>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="n">
-        <v>1210194</v>
+        <v>1775341</v>
       </c>
       <c r="H205" t="n">
         <v>2025</v>
@@ -11818,7 +11820,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
@@ -11841,27 +11843,29 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
-      <c r="R205" t="inlineStr"/>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B206" t="n">
-        <v>539.2000122070312</v>
+        <v>493.8500061035156</v>
       </c>
       <c r="C206" t="n">
-        <v>564.7999877929688</v>
+        <v>562.7999877929688</v>
       </c>
       <c r="D206" t="n">
-        <v>531.2000122070312</v>
+        <v>483.0499877929688</v>
       </c>
       <c r="E206" t="n">
-        <v>551.7999877929688</v>
+        <v>550.25</v>
       </c>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="n">
-        <v>636580</v>
+        <v>1210194</v>
       </c>
       <c r="H206" t="n">
         <v>2025</v>
@@ -11870,7 +11874,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K206" t="n">
         <v>0</v>
@@ -11893,27 +11897,29 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
-      <c r="R206" t="inlineStr"/>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B207" t="n">
-        <v>549.6500244140625</v>
+        <v>539.2000122070312</v>
       </c>
       <c r="C207" t="n">
-        <v>576.0999755859375</v>
+        <v>564.7999877929688</v>
       </c>
       <c r="D207" t="n">
-        <v>530</v>
+        <v>531.2000122070312</v>
       </c>
       <c r="E207" t="n">
-        <v>533.7999877929688</v>
+        <v>551.7999877929688</v>
       </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="n">
-        <v>645225</v>
+        <v>636580</v>
       </c>
       <c r="H207" t="n">
         <v>2025</v>
@@ -11922,7 +11928,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K207" t="n">
         <v>0</v>
@@ -11945,27 +11951,29 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
-      <c r="R207" t="inlineStr"/>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45712</v>
+        <v>45709</v>
       </c>
       <c r="B208" t="n">
-        <v>524</v>
+        <v>549.6500244140625</v>
       </c>
       <c r="C208" t="n">
-        <v>537.9500122070312</v>
+        <v>576.0999755859375</v>
       </c>
       <c r="D208" t="n">
-        <v>507.8999938964844</v>
+        <v>530</v>
       </c>
       <c r="E208" t="n">
-        <v>520.0499877929688</v>
+        <v>533.7999877929688</v>
       </c>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="n">
-        <v>446435</v>
+        <v>645225</v>
       </c>
       <c r="H208" t="n">
         <v>2025</v>
@@ -11974,7 +11982,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K208" t="n">
         <v>0</v>
@@ -11986,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="N208" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O208" t="n">
         <v>0</v>
@@ -11997,27 +12005,29 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
-      <c r="R208" t="inlineStr"/>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45713</v>
+        <v>45712</v>
       </c>
       <c r="B209" t="n">
-        <v>524.5999755859375</v>
+        <v>524</v>
       </c>
       <c r="C209" t="n">
-        <v>534</v>
+        <v>537.9500122070312</v>
       </c>
       <c r="D209" t="n">
-        <v>512.9500122070312</v>
+        <v>507.8999938964844</v>
       </c>
       <c r="E209" t="n">
-        <v>515.1500244140625</v>
+        <v>520.0499877929688</v>
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="n">
-        <v>311357</v>
+        <v>446435</v>
       </c>
       <c r="H209" t="n">
         <v>2025</v>
@@ -12026,7 +12036,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K209" t="n">
         <v>0</v>
@@ -12049,27 +12059,29 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
-      <c r="R209" t="inlineStr"/>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45715</v>
+        <v>45713</v>
       </c>
       <c r="B210" t="n">
-        <v>521.5</v>
+        <v>524.5999755859375</v>
       </c>
       <c r="C210" t="n">
-        <v>523.7000122070312</v>
+        <v>534</v>
       </c>
       <c r="D210" t="n">
-        <v>486.4500122070312</v>
+        <v>512.9500122070312</v>
       </c>
       <c r="E210" t="n">
-        <v>488.3500061035156</v>
+        <v>515.1500244140625</v>
       </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="n">
-        <v>538628</v>
+        <v>311357</v>
       </c>
       <c r="H210" t="n">
         <v>2025</v>
@@ -12078,7 +12090,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K210" t="n">
         <v>0</v>
@@ -12101,27 +12113,29 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
-      <c r="R210" t="inlineStr"/>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45716</v>
+        <v>45715</v>
       </c>
       <c r="B211" t="n">
-        <v>484.3999938964844</v>
+        <v>521.5</v>
       </c>
       <c r="C211" t="n">
-        <v>498.6000061035156</v>
+        <v>523.7000122070312</v>
       </c>
       <c r="D211" t="n">
-        <v>458.9500122070312</v>
+        <v>486.4500122070312</v>
       </c>
       <c r="E211" t="n">
-        <v>477.0499877929688</v>
+        <v>488.3500061035156</v>
       </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="n">
-        <v>926563</v>
+        <v>538628</v>
       </c>
       <c r="H211" t="n">
         <v>2025</v>
@@ -12130,7 +12144,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K211" t="n">
         <v>0</v>
@@ -12153,7 +12167,531 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
-      <c r="R211" t="inlineStr"/>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B212" t="n">
+        <v>484.3999938964844</v>
+      </c>
+      <c r="C212" t="n">
+        <v>498.6000061035156</v>
+      </c>
+      <c r="D212" t="n">
+        <v>458.9500122070312</v>
+      </c>
+      <c r="E212" t="n">
+        <v>477.0499877929688</v>
+      </c>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="n">
+        <v>926563</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I212" t="n">
+        <v>2</v>
+      </c>
+      <c r="J212" t="n">
+        <v>28</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>9</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B213" t="n">
+        <v>486.5499877929688</v>
+      </c>
+      <c r="C213" t="n">
+        <v>492.1000061035156</v>
+      </c>
+      <c r="D213" t="n">
+        <v>428.3999938964844</v>
+      </c>
+      <c r="E213" t="n">
+        <v>443.3999938964844</v>
+      </c>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="n">
+        <v>1445226</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I213" t="n">
+        <v>3</v>
+      </c>
+      <c r="J213" t="n">
+        <v>3</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>10</v>
+      </c>
+      <c r="O213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B214" t="n">
+        <v>439.25</v>
+      </c>
+      <c r="C214" t="n">
+        <v>471</v>
+      </c>
+      <c r="D214" t="n">
+        <v>433.75</v>
+      </c>
+      <c r="E214" t="n">
+        <v>454.75</v>
+      </c>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="n">
+        <v>819387</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I214" t="n">
+        <v>3</v>
+      </c>
+      <c r="J214" t="n">
+        <v>4</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>10</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B215" t="n">
+        <v>460</v>
+      </c>
+      <c r="C215" t="n">
+        <v>481</v>
+      </c>
+      <c r="D215" t="n">
+        <v>451.1000061035156</v>
+      </c>
+      <c r="E215" t="n">
+        <v>478</v>
+      </c>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="n">
+        <v>697881</v>
+      </c>
+      <c r="H215" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I215" t="n">
+        <v>3</v>
+      </c>
+      <c r="J215" t="n">
+        <v>5</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>10</v>
+      </c>
+      <c r="O215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B216" t="n">
+        <v>483</v>
+      </c>
+      <c r="C216" t="n">
+        <v>496.7000122070312</v>
+      </c>
+      <c r="D216" t="n">
+        <v>477</v>
+      </c>
+      <c r="E216" t="n">
+        <v>479.1000061035156</v>
+      </c>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="n">
+        <v>603455</v>
+      </c>
+      <c r="H216" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I216" t="n">
+        <v>3</v>
+      </c>
+      <c r="J216" t="n">
+        <v>6</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>10</v>
+      </c>
+      <c r="O216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B217" t="n">
+        <v>480.8999938964844</v>
+      </c>
+      <c r="C217" t="n">
+        <v>514.4500122070312</v>
+      </c>
+      <c r="D217" t="n">
+        <v>479.1000061035156</v>
+      </c>
+      <c r="E217" t="n">
+        <v>496.4500122070312</v>
+      </c>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="n">
+        <v>1084203</v>
+      </c>
+      <c r="H217" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I217" t="n">
+        <v>3</v>
+      </c>
+      <c r="J217" t="n">
+        <v>7</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>10</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B218" t="n">
+        <v>499</v>
+      </c>
+      <c r="C218" t="n">
+        <v>508.2000122070312</v>
+      </c>
+      <c r="D218" t="n">
+        <v>466.0499877929688</v>
+      </c>
+      <c r="E218" t="n">
+        <v>470.3999938964844</v>
+      </c>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="n">
+        <v>460349</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I218" t="n">
+        <v>3</v>
+      </c>
+      <c r="J218" t="n">
+        <v>10</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>11</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B219" t="n">
+        <v>464</v>
+      </c>
+      <c r="C219" t="n">
+        <v>466</v>
+      </c>
+      <c r="D219" t="n">
+        <v>447.5499877929688</v>
+      </c>
+      <c r="E219" t="n">
+        <v>457.9500122070312</v>
+      </c>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="n">
+        <v>617305</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I219" t="n">
+        <v>3</v>
+      </c>
+      <c r="J219" t="n">
+        <v>11</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>11</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B220" t="n">
+        <v>459.5499877929688</v>
+      </c>
+      <c r="C220" t="n">
+        <v>474.25</v>
+      </c>
+      <c r="D220" t="n">
+        <v>448.3999938964844</v>
+      </c>
+      <c r="E220" t="n">
+        <v>451.3500061035156</v>
+      </c>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="n">
+        <v>626044</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I220" t="n">
+        <v>3</v>
+      </c>
+      <c r="J220" t="n">
+        <v>12</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>11</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B221" t="n">
+        <v>454</v>
+      </c>
+      <c r="C221" t="n">
+        <v>463.6000061035156</v>
+      </c>
+      <c r="D221" t="n">
+        <v>444.9500122070312</v>
+      </c>
+      <c r="E221" t="n">
+        <v>445.9500122070312</v>
+      </c>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="n">
+        <v>504764</v>
+      </c>
+      <c r="H221" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I221" t="n">
+        <v>3</v>
+      </c>
+      <c r="J221" t="n">
+        <v>13</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>11</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R221"/>
+  <dimension ref="A1:R231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11197,7 +11197,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -12267,7 +12269,7 @@
         <v>10</v>
       </c>
       <c r="O213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P213" t="n">
         <v>0</v>
@@ -12275,7 +12277,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
-      <c r="R213" t="inlineStr"/>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -12327,7 +12331,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
-      <c r="R214" t="inlineStr"/>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -12379,7 +12385,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
-      <c r="R215" t="inlineStr"/>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -12431,7 +12439,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
-      <c r="R216" t="inlineStr"/>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -12483,7 +12493,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
-      <c r="R217" t="inlineStr"/>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12535,7 +12547,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
-      <c r="R218" t="inlineStr"/>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12587,7 +12601,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
-      <c r="R219" t="inlineStr"/>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12639,7 +12655,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
-      <c r="R220" t="inlineStr"/>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12691,7 +12709,529 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
-      <c r="R221" t="inlineStr"/>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B222" t="n">
+        <v>448</v>
+      </c>
+      <c r="C222" t="n">
+        <v>453.8500061035156</v>
+      </c>
+      <c r="D222" t="n">
+        <v>433</v>
+      </c>
+      <c r="E222" t="n">
+        <v>435.6000061035156</v>
+      </c>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="n">
+        <v>507580</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I222" t="n">
+        <v>3</v>
+      </c>
+      <c r="J222" t="n">
+        <v>17</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>12</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B223" t="n">
+        <v>435.6000061035156</v>
+      </c>
+      <c r="C223" t="n">
+        <v>435.6000061035156</v>
+      </c>
+      <c r="D223" t="n">
+        <v>435.6000061035156</v>
+      </c>
+      <c r="E223" t="n">
+        <v>435.6000061035156</v>
+      </c>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I223" t="n">
+        <v>3</v>
+      </c>
+      <c r="J223" t="n">
+        <v>18</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>12</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B224" t="n">
+        <v>467.7000122070312</v>
+      </c>
+      <c r="C224" t="n">
+        <v>522.7999877929688</v>
+      </c>
+      <c r="D224" t="n">
+        <v>467.7000122070312</v>
+      </c>
+      <c r="E224" t="n">
+        <v>513.6500244140625</v>
+      </c>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="n">
+        <v>1517719</v>
+      </c>
+      <c r="H224" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I224" t="n">
+        <v>3</v>
+      </c>
+      <c r="J224" t="n">
+        <v>19</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>12</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B225" t="n">
+        <v>518.7000122070312</v>
+      </c>
+      <c r="C225" t="n">
+        <v>528</v>
+      </c>
+      <c r="D225" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="E225" t="n">
+        <v>502.1499938964844</v>
+      </c>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="n">
+        <v>905847</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I225" t="n">
+        <v>3</v>
+      </c>
+      <c r="J225" t="n">
+        <v>20</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>12</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B226" t="n">
+        <v>501.25</v>
+      </c>
+      <c r="C226" t="n">
+        <v>602.5499877929688</v>
+      </c>
+      <c r="D226" t="n">
+        <v>501.25</v>
+      </c>
+      <c r="E226" t="n">
+        <v>601.75</v>
+      </c>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="n">
+        <v>4640856</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I226" t="n">
+        <v>3</v>
+      </c>
+      <c r="J226" t="n">
+        <v>21</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>12</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B227" t="n">
+        <v>632</v>
+      </c>
+      <c r="C227" t="n">
+        <v>673.7000122070312</v>
+      </c>
+      <c r="D227" t="n">
+        <v>617</v>
+      </c>
+      <c r="E227" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="n">
+        <v>4492306</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I227" t="n">
+        <v>3</v>
+      </c>
+      <c r="J227" t="n">
+        <v>24</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>13</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B228" t="n">
+        <v>652</v>
+      </c>
+      <c r="C228" t="n">
+        <v>652.9500122070312</v>
+      </c>
+      <c r="D228" t="n">
+        <v>605.5499877929688</v>
+      </c>
+      <c r="E228" t="n">
+        <v>619.7999877929688</v>
+      </c>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="n">
+        <v>956337</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I228" t="n">
+        <v>3</v>
+      </c>
+      <c r="J228" t="n">
+        <v>25</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>13</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B229" t="n">
+        <v>619.0499877929688</v>
+      </c>
+      <c r="C229" t="n">
+        <v>643.25</v>
+      </c>
+      <c r="D229" t="n">
+        <v>602.1500244140625</v>
+      </c>
+      <c r="E229" t="n">
+        <v>614.0499877929688</v>
+      </c>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="n">
+        <v>1002901</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I229" t="n">
+        <v>3</v>
+      </c>
+      <c r="J229" t="n">
+        <v>26</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>13</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B230" t="n">
+        <v>611</v>
+      </c>
+      <c r="C230" t="n">
+        <v>661</v>
+      </c>
+      <c r="D230" t="n">
+        <v>608.25</v>
+      </c>
+      <c r="E230" t="n">
+        <v>647.3499755859375</v>
+      </c>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="n">
+        <v>1104267</v>
+      </c>
+      <c r="H230" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I230" t="n">
+        <v>3</v>
+      </c>
+      <c r="J230" t="n">
+        <v>27</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>13</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B231" t="n">
+        <v>645.7999877929688</v>
+      </c>
+      <c r="C231" t="n">
+        <v>665.9500122070312</v>
+      </c>
+      <c r="D231" t="n">
+        <v>631</v>
+      </c>
+      <c r="E231" t="n">
+        <v>639.5</v>
+      </c>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="n">
+        <v>715867</v>
+      </c>
+      <c r="H231" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I231" t="n">
+        <v>3</v>
+      </c>
+      <c r="J231" t="n">
+        <v>28</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>13</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R231"/>
+  <dimension ref="A1:R235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12763,7 +12763,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
-      <c r="R222" t="inlineStr"/>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12815,7 +12817,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
-      <c r="R223" t="inlineStr"/>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12867,7 +12871,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
-      <c r="R224" t="inlineStr"/>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12919,7 +12925,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
-      <c r="R225" t="inlineStr"/>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -12971,7 +12979,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
-      <c r="R226" t="inlineStr"/>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -13023,7 +13033,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
-      <c r="R227" t="inlineStr"/>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -13075,7 +13087,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
-      <c r="R228" t="inlineStr"/>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -13127,7 +13141,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
-      <c r="R229" t="inlineStr"/>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -13179,7 +13195,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
-      <c r="R230" t="inlineStr"/>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -13231,7 +13249,217 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
-      <c r="R231" t="inlineStr"/>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B232" t="n">
+        <v>624</v>
+      </c>
+      <c r="C232" t="n">
+        <v>632.0499877929688</v>
+      </c>
+      <c r="D232" t="n">
+        <v>613.2000122070312</v>
+      </c>
+      <c r="E232" t="n">
+        <v>625.25</v>
+      </c>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="n">
+        <v>489195</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I232" t="n">
+        <v>4</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>14</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B233" t="n">
+        <v>627.0499877929688</v>
+      </c>
+      <c r="C233" t="n">
+        <v>660</v>
+      </c>
+      <c r="D233" t="n">
+        <v>617.4000244140625</v>
+      </c>
+      <c r="E233" t="n">
+        <v>647.5999755859375</v>
+      </c>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="n">
+        <v>757300</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I233" t="n">
+        <v>4</v>
+      </c>
+      <c r="J233" t="n">
+        <v>2</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>14</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B234" t="n">
+        <v>630</v>
+      </c>
+      <c r="C234" t="n">
+        <v>677</v>
+      </c>
+      <c r="D234" t="n">
+        <v>627</v>
+      </c>
+      <c r="E234" t="n">
+        <v>665.25</v>
+      </c>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="n">
+        <v>1112233</v>
+      </c>
+      <c r="H234" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I234" t="n">
+        <v>4</v>
+      </c>
+      <c r="J234" t="n">
+        <v>3</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>14</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B235" t="n">
+        <v>665</v>
+      </c>
+      <c r="C235" t="n">
+        <v>667</v>
+      </c>
+      <c r="D235" t="n">
+        <v>598.75</v>
+      </c>
+      <c r="E235" t="n">
+        <v>608.4500122070312</v>
+      </c>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="n">
+        <v>2048437</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I235" t="n">
+        <v>4</v>
+      </c>
+      <c r="J235" t="n">
+        <v>4</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>14</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R235"/>
+  <dimension ref="A1:R239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13303,7 +13303,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
-      <c r="R232" t="inlineStr"/>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -13355,7 +13357,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
-      <c r="R233" t="inlineStr"/>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -13407,7 +13411,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
-      <c r="R234" t="inlineStr"/>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -13459,7 +13465,217 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
-      <c r="R235" t="inlineStr"/>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B236" t="n">
+        <v>547.5999755859375</v>
+      </c>
+      <c r="C236" t="n">
+        <v>565.0499877929688</v>
+      </c>
+      <c r="D236" t="n">
+        <v>547.5999755859375</v>
+      </c>
+      <c r="E236" t="n">
+        <v>547.5999755859375</v>
+      </c>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="n">
+        <v>822997</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I236" t="n">
+        <v>4</v>
+      </c>
+      <c r="J236" t="n">
+        <v>7</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>15</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B237" t="n">
+        <v>565</v>
+      </c>
+      <c r="C237" t="n">
+        <v>602.3499755859375</v>
+      </c>
+      <c r="D237" t="n">
+        <v>564.9500122070312</v>
+      </c>
+      <c r="E237" t="n">
+        <v>595.7999877929688</v>
+      </c>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="n">
+        <v>879561</v>
+      </c>
+      <c r="H237" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I237" t="n">
+        <v>4</v>
+      </c>
+      <c r="J237" t="n">
+        <v>8</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>15</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B238" t="n">
+        <v>593.4500122070312</v>
+      </c>
+      <c r="C238" t="n">
+        <v>627</v>
+      </c>
+      <c r="D238" t="n">
+        <v>577.3499755859375</v>
+      </c>
+      <c r="E238" t="n">
+        <v>614.0999755859375</v>
+      </c>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="n">
+        <v>754123</v>
+      </c>
+      <c r="H238" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I238" t="n">
+        <v>4</v>
+      </c>
+      <c r="J238" t="n">
+        <v>9</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>15</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B239" t="n">
+        <v>644.6500244140625</v>
+      </c>
+      <c r="C239" t="n">
+        <v>644.6500244140625</v>
+      </c>
+      <c r="D239" t="n">
+        <v>623.9500122070312</v>
+      </c>
+      <c r="E239" t="n">
+        <v>627.75</v>
+      </c>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="n">
+        <v>505286</v>
+      </c>
+      <c r="H239" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I239" t="n">
+        <v>4</v>
+      </c>
+      <c r="J239" t="n">
+        <v>11</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>15</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R239"/>
+  <dimension ref="A1:R242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13519,7 +13519,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
-      <c r="R236" t="inlineStr"/>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13571,7 +13573,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
-      <c r="R237" t="inlineStr"/>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13623,7 +13627,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
-      <c r="R238" t="inlineStr"/>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13675,7 +13681,165 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
-      <c r="R239" t="inlineStr"/>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B240" t="n">
+        <v>640</v>
+      </c>
+      <c r="C240" t="n">
+        <v>644.4000244140625</v>
+      </c>
+      <c r="D240" t="n">
+        <v>631</v>
+      </c>
+      <c r="E240" t="n">
+        <v>636</v>
+      </c>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="n">
+        <v>385186</v>
+      </c>
+      <c r="H240" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I240" t="n">
+        <v>4</v>
+      </c>
+      <c r="J240" t="n">
+        <v>15</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>16</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B241" t="n">
+        <v>634.5</v>
+      </c>
+      <c r="C241" t="n">
+        <v>648</v>
+      </c>
+      <c r="D241" t="n">
+        <v>572.4000244140625</v>
+      </c>
+      <c r="E241" t="n">
+        <v>599.9000244140625</v>
+      </c>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="n">
+        <v>2324996</v>
+      </c>
+      <c r="H241" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I241" t="n">
+        <v>4</v>
+      </c>
+      <c r="J241" t="n">
+        <v>16</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>16</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B242" t="n">
+        <v>587</v>
+      </c>
+      <c r="C242" t="n">
+        <v>629</v>
+      </c>
+      <c r="D242" t="n">
+        <v>582.0499877929688</v>
+      </c>
+      <c r="E242" t="n">
+        <v>609.7000122070312</v>
+      </c>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="n">
+        <v>914845</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I242" t="n">
+        <v>4</v>
+      </c>
+      <c r="J242" t="n">
+        <v>17</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>16</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R242"/>
+  <dimension ref="A1:R251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13403,7 +13403,7 @@
         <v>14</v>
       </c>
       <c r="O234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P234" t="n">
         <v>0</v>
@@ -13735,7 +13735,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
-      <c r="R240" t="inlineStr"/>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13787,7 +13789,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
-      <c r="R241" t="inlineStr"/>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -13839,7 +13843,477 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
-      <c r="R242" t="inlineStr"/>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B243" t="n">
+        <v>615</v>
+      </c>
+      <c r="C243" t="n">
+        <v>624.4000244140625</v>
+      </c>
+      <c r="D243" t="n">
+        <v>581</v>
+      </c>
+      <c r="E243" t="n">
+        <v>602.2999877929688</v>
+      </c>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="n">
+        <v>683582</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I243" t="n">
+        <v>4</v>
+      </c>
+      <c r="J243" t="n">
+        <v>21</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>17</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B244" t="n">
+        <v>605</v>
+      </c>
+      <c r="C244" t="n">
+        <v>609</v>
+      </c>
+      <c r="D244" t="n">
+        <v>591.5499877929688</v>
+      </c>
+      <c r="E244" t="n">
+        <v>595.7999877929688</v>
+      </c>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="n">
+        <v>547133</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I244" t="n">
+        <v>4</v>
+      </c>
+      <c r="J244" t="n">
+        <v>22</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>17</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B245" t="n">
+        <v>597.1500244140625</v>
+      </c>
+      <c r="C245" t="n">
+        <v>602.9500122070312</v>
+      </c>
+      <c r="D245" t="n">
+        <v>575</v>
+      </c>
+      <c r="E245" t="n">
+        <v>578.6500244140625</v>
+      </c>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="n">
+        <v>525938</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I245" t="n">
+        <v>4</v>
+      </c>
+      <c r="J245" t="n">
+        <v>23</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>17</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B246" t="n">
+        <v>579.9000244140625</v>
+      </c>
+      <c r="C246" t="n">
+        <v>589</v>
+      </c>
+      <c r="D246" t="n">
+        <v>577</v>
+      </c>
+      <c r="E246" t="n">
+        <v>583.2000122070312</v>
+      </c>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="n">
+        <v>320746</v>
+      </c>
+      <c r="H246" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I246" t="n">
+        <v>4</v>
+      </c>
+      <c r="J246" t="n">
+        <v>24</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>17</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B247" t="n">
+        <v>580</v>
+      </c>
+      <c r="C247" t="n">
+        <v>584</v>
+      </c>
+      <c r="D247" t="n">
+        <v>538</v>
+      </c>
+      <c r="E247" t="n">
+        <v>547.1500244140625</v>
+      </c>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="n">
+        <v>577123</v>
+      </c>
+      <c r="H247" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I247" t="n">
+        <v>4</v>
+      </c>
+      <c r="J247" t="n">
+        <v>25</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>17</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B248" t="n">
+        <v>539.2000122070312</v>
+      </c>
+      <c r="C248" t="n">
+        <v>570</v>
+      </c>
+      <c r="D248" t="n">
+        <v>539.2000122070312</v>
+      </c>
+      <c r="E248" t="n">
+        <v>548.2999877929688</v>
+      </c>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="n">
+        <v>453198</v>
+      </c>
+      <c r="H248" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I248" t="n">
+        <v>4</v>
+      </c>
+      <c r="J248" t="n">
+        <v>28</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>18</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B249" t="n">
+        <v>552.9500122070312</v>
+      </c>
+      <c r="C249" t="n">
+        <v>560.6500244140625</v>
+      </c>
+      <c r="D249" t="n">
+        <v>529.0499877929688</v>
+      </c>
+      <c r="E249" t="n">
+        <v>537.5499877929688</v>
+      </c>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="n">
+        <v>469973</v>
+      </c>
+      <c r="H249" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I249" t="n">
+        <v>4</v>
+      </c>
+      <c r="J249" t="n">
+        <v>29</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>18</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B250" t="n">
+        <v>540</v>
+      </c>
+      <c r="C250" t="n">
+        <v>540.0499877929688</v>
+      </c>
+      <c r="D250" t="n">
+        <v>510</v>
+      </c>
+      <c r="E250" t="n">
+        <v>511.8999938964844</v>
+      </c>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="n">
+        <v>428746</v>
+      </c>
+      <c r="H250" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I250" t="n">
+        <v>4</v>
+      </c>
+      <c r="J250" t="n">
+        <v>30</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>18</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B251" t="n">
+        <v>512</v>
+      </c>
+      <c r="C251" t="n">
+        <v>551</v>
+      </c>
+      <c r="D251" t="n">
+        <v>505.2000122070312</v>
+      </c>
+      <c r="E251" t="n">
+        <v>534.75</v>
+      </c>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="n">
+        <v>808494</v>
+      </c>
+      <c r="H251" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I251" t="n">
+        <v>5</v>
+      </c>
+      <c r="J251" t="n">
+        <v>2</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>18</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R251" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1d/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R251"/>
+  <dimension ref="A1:R261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13897,7 +13897,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
-      <c r="R243" t="inlineStr"/>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -13949,7 +13951,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
-      <c r="R244" t="inlineStr"/>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -14001,7 +14005,9 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
-      <c r="R245" t="inlineStr"/>
+      <c r="R245" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -14053,7 +14059,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
-      <c r="R246" t="inlineStr"/>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -14105,7 +14113,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
-      <c r="R247" t="inlineStr"/>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -14157,7 +14167,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
-      <c r="R248" t="inlineStr"/>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -14209,7 +14221,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
-      <c r="R249" t="inlineStr"/>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -14261,7 +14275,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
-      <c r="R250" t="inlineStr"/>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -14313,7 +14329,529 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
-      <c r="R251" t="inlineStr"/>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B252" t="n">
+        <v>540</v>
+      </c>
+      <c r="C252" t="n">
+        <v>559</v>
+      </c>
+      <c r="D252" t="n">
+        <v>537.4500122070312</v>
+      </c>
+      <c r="E252" t="n">
+        <v>553.75</v>
+      </c>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="n">
+        <v>413101</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I252" t="n">
+        <v>5</v>
+      </c>
+      <c r="J252" t="n">
+        <v>5</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>19</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B253" t="n">
+        <v>553.75</v>
+      </c>
+      <c r="C253" t="n">
+        <v>557.4500122070312</v>
+      </c>
+      <c r="D253" t="n">
+        <v>523.5</v>
+      </c>
+      <c r="E253" t="n">
+        <v>531</v>
+      </c>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="n">
+        <v>410109</v>
+      </c>
+      <c r="H253" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I253" t="n">
+        <v>5</v>
+      </c>
+      <c r="J253" t="n">
+        <v>6</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>19</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B254" t="n">
+        <v>516</v>
+      </c>
+      <c r="C254" t="n">
+        <v>542</v>
+      </c>
+      <c r="D254" t="n">
+        <v>509.8500061035156</v>
+      </c>
+      <c r="E254" t="n">
+        <v>534.5999755859375</v>
+      </c>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="n">
+        <v>566078</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I254" t="n">
+        <v>5</v>
+      </c>
+      <c r="J254" t="n">
+        <v>7</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>19</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B255" t="n">
+        <v>544</v>
+      </c>
+      <c r="C255" t="n">
+        <v>555</v>
+      </c>
+      <c r="D255" t="n">
+        <v>519</v>
+      </c>
+      <c r="E255" t="n">
+        <v>524.5</v>
+      </c>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="n">
+        <v>401796</v>
+      </c>
+      <c r="H255" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I255" t="n">
+        <v>5</v>
+      </c>
+      <c r="J255" t="n">
+        <v>8</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>19</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B256" t="n">
+        <v>505</v>
+      </c>
+      <c r="C256" t="n">
+        <v>519.7000122070312</v>
+      </c>
+      <c r="D256" t="n">
+        <v>505</v>
+      </c>
+      <c r="E256" t="n">
+        <v>512.2000122070312</v>
+      </c>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="n">
+        <v>451206</v>
+      </c>
+      <c r="H256" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I256" t="n">
+        <v>5</v>
+      </c>
+      <c r="J256" t="n">
+        <v>9</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>19</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B257" t="n">
+        <v>545</v>
+      </c>
+      <c r="C257" t="n">
+        <v>563.4000244140625</v>
+      </c>
+      <c r="D257" t="n">
+        <v>535</v>
+      </c>
+      <c r="E257" t="n">
+        <v>563.4000244140625</v>
+      </c>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="n">
+        <v>1225688</v>
+      </c>
+      <c r="H257" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I257" t="n">
+        <v>5</v>
+      </c>
+      <c r="J257" t="n">
+        <v>12</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>20</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B258" t="n">
+        <v>567</v>
+      </c>
+      <c r="C258" t="n">
+        <v>609</v>
+      </c>
+      <c r="D258" t="n">
+        <v>559.4000244140625</v>
+      </c>
+      <c r="E258" t="n">
+        <v>604.4500122070312</v>
+      </c>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="n">
+        <v>1192203</v>
+      </c>
+      <c r="H258" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I258" t="n">
+        <v>5</v>
+      </c>
+      <c r="J258" t="n">
+        <v>13</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>20</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B259" t="n">
+        <v>610</v>
+      </c>
+      <c r="C259" t="n">
+        <v>624</v>
+      </c>
+      <c r="D259" t="n">
+        <v>588</v>
+      </c>
+      <c r="E259" t="n">
+        <v>618.6500244140625</v>
+      </c>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="n">
+        <v>1704420</v>
+      </c>
+      <c r="H259" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I259" t="n">
+        <v>5</v>
+      </c>
+      <c r="J259" t="n">
+        <v>14</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>20</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B260" t="n">
+        <v>630</v>
+      </c>
+      <c r="C260" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="D260" t="n">
+        <v>600</v>
+      </c>
+      <c r="E260" t="n">
+        <v>620.75</v>
+      </c>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="n">
+        <v>1792376</v>
+      </c>
+      <c r="H260" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I260" t="n">
+        <v>5</v>
+      </c>
+      <c r="J260" t="n">
+        <v>15</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>20</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B261" t="n">
+        <v>622</v>
+      </c>
+      <c r="C261" t="n">
+        <v>628</v>
+      </c>
+      <c r="D261" t="n">
+        <v>610</v>
+      </c>
+      <c r="E261" t="n">
+        <v>614.3499755859375</v>
+      </c>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="n">
+        <v>1422765</v>
+      </c>
+      <c r="H261" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I261" t="n">
+        <v>5</v>
+      </c>
+      <c r="J261" t="n">
+        <v>16</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>20</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
